--- a/Padrao/Leiautes/Prestadores/Prestador/Leiaute Importação prestadores - Final  - Modelo.xlsx
+++ b/Padrao/Leiautes/Prestadores/Prestador/Leiaute Importação prestadores - Final  - Modelo.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiliphedeAndradeLima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\AG\Migracoes\Padrao\Leiautes\Prestadores\Prestador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{4B9982FD-7972-46CF-B892-7C414F8A2493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF3544B-D8A2-423F-9BCF-782AB1FB39B8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Prestadores" sheetId="1" r:id="rId1"/>
     <sheet name="Endereços" sheetId="2" r:id="rId2"/>
     <sheet name="Credenciamento" sheetId="3" r:id="rId3"/>
     <sheet name="Especialidades" sheetId="4" r:id="rId4"/>
+    <sheet name="Domínio Tipo de Prestador" sheetId="5" r:id="rId5"/>
+    <sheet name="Domínio - Categoria de Prestado" sheetId="6" r:id="rId6"/>
+    <sheet name="Domínio - Motivos de Descreden" sheetId="7" r:id="rId7"/>
+    <sheet name="Dominio - Motivos de Bloqueio" sheetId="8" r:id="rId8"/>
+    <sheet name="Domínio - Tipo Auditoria" sheetId="9" r:id="rId9"/>
+    <sheet name="Domínio - Estado Civíl" sheetId="10" r:id="rId10"/>
+    <sheet name="Domínio - Local de Atendimento" sheetId="11" r:id="rId11"/>
+    <sheet name="Domínio - ISS" sheetId="12" r:id="rId12"/>
+    <sheet name="Domínio - Cod Serviços Pref. SP" sheetId="13" r:id="rId13"/>
+    <sheet name="Domínio - Código do serviço" sheetId="14" r:id="rId14"/>
+    <sheet name="Domínio - Filial Padrão" sheetId="16" r:id="rId15"/>
+    <sheet name="Domínio - Filial Custo" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prestadores!$A$1:$H$97</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1527">
   <si>
     <t>Campo</t>
   </si>
@@ -2263,11 +2274,2678 @@
   <si>
     <t xml:space="preserve">Caso portal de prestadores não seja o sistema benner, nenhum impacto, enviar valor padrão S- Sim </t>
   </si>
+  <si>
+    <t xml:space="preserve">Código </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATENDIMENTO DOMICILIAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MÉDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLINICA ODONTOLÓGICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLINICAS MÉDICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSULTÓRIO ODONTOLÓGICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COOPERATIVA MÉDICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIAGNÓSTICO POR IMAGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FISIOTERAPEUTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FONOAUDIÓLOGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FORNECEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOME CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOSPITAL DIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LABORATÓRIO DE ANÁLISES/PATOLOGIAS CLÍNICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIVRE ESCOLHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NUTRICIONISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OUTROS PROFISSIONAIS DA SAUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAGAMENTOS JUDICIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GARANTIA DE ATENDIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROGRAMAS ESPECIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PSICÓLOGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RECIPROCIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SERVIÇO RADIOLOGICO E DIAGNOSTICO ODONTOLOGICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SISTEMA ÚNICO DE SAÚDE (SUS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERAPEUTA OCUPACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOSPITAL ESPECIALIDADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOSPITAL GERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REMOÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AUDITOR/PERITO - MÉDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AUDITOR/PERITO - ODONTOLÓGICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLINICA MULTI - PROFISSIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOSPITAL - RETAGUARDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRESTADOR DE SERVIÇO -  PLATAFORMA TELEATENDIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREDENCIADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONVÊNIO DE RECIPROCIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEMBRO DE CORPO CLÍNICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROPONENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREDENCIADO OCUPACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESCREDENCIADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAGAMENTO JUDICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FORNECEDOR DE MATERIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FORNECEDOR DE MEDICAMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREDENCIADO REFERENCIADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEMBROS DO CONVÊNIO DE RECIPROCIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIVRE  - ESCOLHA</t>
+  </si>
+  <si>
+    <t>A PEDIDO DO PRESTADOR</t>
+  </si>
+  <si>
+    <t>ALTERACAO DE CNPJ / INCORPORACAO</t>
+  </si>
+  <si>
+    <t>ALTERACAO DE PESSOA FISICA PARA JURIDICA</t>
+  </si>
+  <si>
+    <t>ALTERACAO DE PESSOA JURIDICA PARA FISICA</t>
+  </si>
+  <si>
+    <t>APOSENTADORIA</t>
+  </si>
+  <si>
+    <t>AUSENCIA DE ATENDIMENTO</t>
+  </si>
+  <si>
+    <t>CREDENCIADO NAO LOCALIZADO</t>
+  </si>
+  <si>
+    <t>DESCUMPRIMENTO CONTRATUAL</t>
+  </si>
+  <si>
+    <t>DESINTERESSE DA OPERADORA</t>
+  </si>
+  <si>
+    <t>ENCERRAMENTO DAS ATIVIDADES</t>
+  </si>
+  <si>
+    <t>EXCLUSIVIDADE SUS</t>
+  </si>
+  <si>
+    <t>ÓBITO</t>
+  </si>
+  <si>
+    <t>PROCESSO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>REDIMENSIONAMENTO DA REDE</t>
+  </si>
+  <si>
+    <t>AUSÊNCIA DE ATIVIDADES</t>
+  </si>
+  <si>
+    <t>CADASTRO ERRADO</t>
+  </si>
+  <si>
+    <t>DETERMINAÇÃO DA ANVISA</t>
+  </si>
+  <si>
+    <t>DETERMINAÇÃO DA OPERADORA</t>
+  </si>
+  <si>
+    <t>DETERMINAÇÃO JUDICIAL</t>
+  </si>
+  <si>
+    <t>INTERVENCAO FISCAL</t>
+  </si>
+  <si>
+    <t>INTERVENCAO SANITARIA</t>
+  </si>
+  <si>
+    <t>OBRA/REFORMA</t>
+  </si>
+  <si>
+    <t>POR SOLICITAÇÃO DO PRESTADOR</t>
+  </si>
+  <si>
+    <t>SUSPENSO PARCIALMENTE</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO SUSPENSO PELO PRESTADOR  - ASSUNTO FINA</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO SUSPENSO PELO PRESTADOR  - PROCESSO COM</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>DESCRICAO</t>
+  </si>
+  <si>
+    <t>Interna</t>
+  </si>
+  <si>
+    <t>Externa</t>
+  </si>
+  <si>
+    <t>Sem auditoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASADO(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOLTEIRO(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIVORCIADO(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESQUITADO(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIÚVO(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OUTROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEPARADO(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COABITADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rede Credenciada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rede Livre Escolha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistema único de Saúde</t>
+  </si>
+  <si>
+    <t>GERAL PF</t>
+  </si>
+  <si>
+    <t>GERAL PJ</t>
+  </si>
+  <si>
+    <t>ISENTO PF</t>
+  </si>
+  <si>
+    <t>ISENTO PJ</t>
+  </si>
+  <si>
+    <t>Nucleação e bombardeamento de nuvens e congêneres</t>
+  </si>
+  <si>
+    <t>Assistência técnica</t>
+  </si>
+  <si>
+    <t>Planejamento, coordenação, programação ou organização técnica, financeira ou administrativa</t>
+  </si>
+  <si>
+    <t>Perícias, laudos, exames técnicos e análises técnicas, inclusive institutos psicotécnicos</t>
+  </si>
+  <si>
+    <t>Inspeção ambiental veicular</t>
+  </si>
+  <si>
+    <t>Perícias, laudos, exames técnicos e análises técnicas, sem exigência de formação em nível superior (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Análise de Organização e Métodos</t>
+  </si>
+  <si>
+    <t>Desenho industrial</t>
+  </si>
+  <si>
+    <t>Desenhista industrial (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços de assistência social</t>
+  </si>
+  <si>
+    <t>Assistente social (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços de avaliação de bens e serviços de qualquer natureza</t>
+  </si>
+  <si>
+    <t>Avaliador (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços de biologia, biotecnologia e química</t>
+  </si>
+  <si>
+    <t>Serviços técnicos em edificações, eletrônica, eletrotécnica, mecânica, telecomunicações e congêneres</t>
+  </si>
+  <si>
+    <t>Serviços de desenhos técnicos</t>
+  </si>
+  <si>
+    <t>Desenhista técnico (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços de meteorologia</t>
+  </si>
+  <si>
+    <t>Serviços de museologia</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Técnico</t>
+  </si>
+  <si>
+    <t>Científico, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Transporte público de passageiros, realizado pela Companhia do Metropolitano de São Paulo – METRÔ</t>
+  </si>
+  <si>
+    <t>Transporte por ônibus (concessionária e permissionárias)</t>
+  </si>
+  <si>
+    <t>Transporte por táxi (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Transporte por táxi, explorado por pessoa jurídica</t>
+  </si>
+  <si>
+    <t>Transporte de escolares</t>
+  </si>
+  <si>
+    <t>Transporte de escolares (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Transporte de pessoas, por qualquer meio, dentro do território do município</t>
+  </si>
+  <si>
+    <t>Transporte de bens ou valores, dentro do território do Município (inclusive auto</t>
+  </si>
+  <si>
+    <t>socorro e transporte de veículos)</t>
+  </si>
+  <si>
+    <t>Serviços de coleta, remessa ou entrega de correspondências, documentos, objetos, bens ou valores, realizados pelos correios e suas agências franqueadas</t>
+  </si>
+  <si>
+    <t>Serviços de coleta, remessa ou entrega de correspondências, documentos, objetos, bens ou valores, realizados inclusive por courrier e congêneres</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Transporte Municipal, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Propaganda e publicidade, inclusive promoção de vendas, planejamento de campanhas ou sistemas de publicidade, elaboração de desenhos, textos e demais materiais publicitários</t>
+  </si>
+  <si>
+    <t>Serviços de programação visual, comunicação visual e congêneres</t>
+  </si>
+  <si>
+    <t>Repórter, assessor de imprensa, jornalista e relações públicas (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços de reportagem, assessoria de imprensa, jornalismo e relações públicas</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Mercadologia e Comunicação, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Análise e desenvolvimento de sistemas</t>
+  </si>
+  <si>
+    <t>Programação</t>
+  </si>
+  <si>
+    <t>Processamento de dados, outros serviços de informática não referenciados em outro código do grupo Jurídicos, Econômicos e Técnico</t>
+  </si>
+  <si>
+    <t>Administrativo e congêneres</t>
+  </si>
+  <si>
+    <t>Elaboração de programas de computadores (software), inclusive de jogos eletrônicos</t>
+  </si>
+  <si>
+    <t>Licenciamento ou cessão de direito de uso de programas de computação, inclusive distribuição</t>
+  </si>
+  <si>
+    <t>Serviços de pesquisas e desenvolvimento de qualquer natureza, elaboração de programas de computadores (software), inclusive de jogos eletrônicos, e licenciamento ou cessão de direito de uso de programas de computação, inclusive distribuição (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Assessoria e consultoria em informática</t>
+  </si>
+  <si>
+    <t>Suporte técnico em informática, inclusive instalação, configuração e manutenção de programas de computação e bancos de dados</t>
+  </si>
+  <si>
+    <t>Suporte técnico em informática, inclusive instalação, configuração e manutenção de programas de computação e bancos de dados. (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Planejamento, confecção, manutenção e atualização de páginas eletrônicas</t>
+  </si>
+  <si>
+    <t>Serviços de pesquisas e desenvolvimento de qualquer natureza</t>
+  </si>
+  <si>
+    <t>Análise, exame, pesquisa, coleta, compilação e fornecimento de dados e informações de qualquer natureza, inclusive cadastro e similares</t>
+  </si>
+  <si>
+    <t>Assessoria ou consultoria de qualquer natureza, não contida em outros itens desta lista</t>
+  </si>
+  <si>
+    <t>Tradução e interpretação</t>
+  </si>
+  <si>
+    <t>Tradutor e intérprete (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Datilografia, digitação, estenografia, expediente, secretaria em geral, resposta audível (telemarketing), redação, edição, revisão, apoio e infra</t>
+  </si>
+  <si>
+    <t>estrutura administrativa e congêneres</t>
+  </si>
+  <si>
+    <t>Datilógrafo, digitador, estenógrafo, expediente, secretaria em geral, resposta audível (telemarketing),redator, editor, revisor, apoio e infra</t>
+  </si>
+  <si>
+    <t>estrutura administrativa e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Datilógrafo, não estabelecido (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Administração em geral, inclusive de bens e negócios de terceiros, exceto imóveis</t>
+  </si>
+  <si>
+    <t>Administração de imóveis</t>
+  </si>
+  <si>
+    <t>Advocacia.</t>
+  </si>
+  <si>
+    <t>Advogado (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocacia (regime especial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sociedade)</t>
+  </si>
+  <si>
+    <t>Arbitragem de qualquer espécie, inclusive jurídica</t>
+  </si>
+  <si>
+    <t>Auditoria.</t>
+  </si>
+  <si>
+    <t>Auditor (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditoria (regime especial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sociedade).</t>
+  </si>
+  <si>
+    <t>Atuária e cálculos técnicos de qualquer natureza</t>
+  </si>
+  <si>
+    <t>Atuário e calculista técnico (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Contabilidade, inclusive serviços técnicos e auxiliares</t>
+  </si>
+  <si>
+    <t>Contador e congêneres, com nível superior (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Contador, técnico em contabilidade, guarda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">livros e congêneres (regime especial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sociedade</t>
+  </si>
+  <si>
+    <t>Técnico em contabilidade, guarda</t>
+  </si>
+  <si>
+    <t>livros e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Consultoria e assessoria econômica ou financeira</t>
+  </si>
+  <si>
+    <t>Economista (profissional autônomo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economistas (regime especial </t>
+  </si>
+  <si>
+    <t>Estatística.</t>
+  </si>
+  <si>
+    <t>Assessoria, análise, avaliação, atendimento, consulta, cadastro, seleção, gerenciamento de informações, administração de contas a receber ou a pagar e em geral, relacionados a operações de faturização("factoring")</t>
+  </si>
+  <si>
+    <t>Apresentação de palestras, conferências, seminários e congêneres</t>
+  </si>
+  <si>
+    <t>Serviços de registros públicos, cartorários e notariais, exceto autenticação de documentos, reconhecimento de firmas e prestação de informações por qualquer forma ou meio quando o interessado dispensar a certidão correspondente</t>
+  </si>
+  <si>
+    <t>Autenticação de documentos, reconhecimento de firmas e prestação de informações por qualquer forma ou meio quando o interessado dispensar a certidão correspondente, prestados por notários, oficiais de registro ou seus prepostos</t>
+  </si>
+  <si>
+    <t>Serviços de biblioteconomia</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Jurídicos, Econômicos e Técnico</t>
+  </si>
+  <si>
+    <t>Administrativo, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Medicina e biomedicina</t>
+  </si>
+  <si>
+    <t>Médico e biomédico (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicina e biomedicina (regime especial </t>
+  </si>
+  <si>
+    <t>Análises clínicas, radioterapia, quimioterapia, ultra</t>
+  </si>
+  <si>
+    <t>sonografia, ressonância magnética, radiologia, tomografia e congêneres</t>
+  </si>
+  <si>
+    <t>Análises clínicas, patologia, eletricidade médica, radioterapia, quimioterapia, ultra</t>
+  </si>
+  <si>
+    <t>sonografia, ressonância magnética, radiologia, tomografia e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonografia, ressonância magnética, radiologia, tomografia e congêneres (regime especial </t>
+  </si>
+  <si>
+    <t>Laboratórios.</t>
+  </si>
+  <si>
+    <t>Hospitais.</t>
+  </si>
+  <si>
+    <t>Clínicas e casas de saúde</t>
+  </si>
+  <si>
+    <t>Ambulatórios e prontos socorros</t>
+  </si>
+  <si>
+    <t>Sanatórios, manicômios e congêneres</t>
+  </si>
+  <si>
+    <t>Instrumentação cirúrgica</t>
+  </si>
+  <si>
+    <t>Acupuntura.</t>
+  </si>
+  <si>
+    <t>Acupunturista (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Enfermagem, inclusive serviços auxiliares</t>
+  </si>
+  <si>
+    <t>Enfermeiro (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermagem, inclusive serviços auxiliares (regime especial </t>
+  </si>
+  <si>
+    <t>Técnico em enfermagem, inclusive serviços auxiliares (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços farmacêuticos</t>
+  </si>
+  <si>
+    <t>Fisioterapia.</t>
+  </si>
+  <si>
+    <t>Fisioterapeuta (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisioterapia (regime especial </t>
+  </si>
+  <si>
+    <t>Fonoaudiologia</t>
+  </si>
+  <si>
+    <t>Fonoaudiólogo (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonoaudiologia (regime especial </t>
+  </si>
+  <si>
+    <t>Terapia ocupacional</t>
+  </si>
+  <si>
+    <t>Terapeuta ocupacional (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terapia ocupacional (regime especial </t>
+  </si>
+  <si>
+    <t>Terapias de qualquer espécie destinadas ao tratamento físico, orgânico e mental, inclusive massoterapia, naturologia e naturopatia</t>
+  </si>
+  <si>
+    <t>Terapeuta de qualquer espécie destinado ao tratamento físico, orgânico e mental, inclusive massoterapia, naturologia e naturopatia (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Nutrição.</t>
+  </si>
+  <si>
+    <t>Obstetrícia.</t>
+  </si>
+  <si>
+    <t>Obstetra (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obstetrícia (regime especial </t>
+  </si>
+  <si>
+    <t>Odontologia.</t>
+  </si>
+  <si>
+    <t>Dentista (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odontologia (regime especial </t>
+  </si>
+  <si>
+    <t>Ortóptica.</t>
+  </si>
+  <si>
+    <t>Ortóptico (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortóptica (regime especial </t>
+  </si>
+  <si>
+    <t>Próteses sob encomenda</t>
+  </si>
+  <si>
+    <t>Protético (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próteses sob encomenda (regime especial </t>
+  </si>
+  <si>
+    <t>Psicanálise.</t>
+  </si>
+  <si>
+    <t>Psicologia.</t>
+  </si>
+  <si>
+    <t>Psicólogo, clínico ou não (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psicologia, clínica ou não (regime especial </t>
+  </si>
+  <si>
+    <t>Casas de repouso e congêneres.</t>
+  </si>
+  <si>
+    <t>Creches.</t>
+  </si>
+  <si>
+    <t>Asilos.</t>
+  </si>
+  <si>
+    <t>Inseminação artificial, fertilização "in vitro" e congêneres</t>
+  </si>
+  <si>
+    <t>Bancos de sangue, leite, pele, olhos, óvulos, sêmen e congêneres</t>
+  </si>
+  <si>
+    <t>Coleta de sangue, leite, tecidos, sêmen, órgãos e materiais biológicos de qualquer espécie</t>
+  </si>
+  <si>
+    <t>Unidade de atendimento, assistência ou tratamento móvel e congêneres</t>
+  </si>
+  <si>
+    <t>Planos de medicina de grupo ou individual e convênios para prestação de assistência médica, hospitalar, odontológica e congêneres</t>
+  </si>
+  <si>
+    <t>Outros planos de saúde que se cumpram através de serviços de terceiros contratados, credenciados, cooperados ou apenas pagos pelo operador do plano mediante indicação do beneficiário</t>
+  </si>
+  <si>
+    <t>Medicina veterinária e zootecnia</t>
+  </si>
+  <si>
+    <t>Médico veterinário e zootécnico (profissional autônomo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicina veterinária e zootecnia (regime especial </t>
+  </si>
+  <si>
+    <t>Hospitais, clínicas, ambulatórios, prontos</t>
+  </si>
+  <si>
+    <t>socorros e congêneres, na área veterinária</t>
+  </si>
+  <si>
+    <t>Laboratórios de análise na área veterinária</t>
+  </si>
+  <si>
+    <t>Inseminação artificial, fertilização "in vitro" e congêneres, na área veterinária</t>
+  </si>
+  <si>
+    <t>Bancos de sangue e de órgãos e congêneres, na área veterinária</t>
+  </si>
+  <si>
+    <t>Coleta de sangue, leite, tecidos, sêmen, órgãos e materiais biológicos de qualquer espécie, na área veterinária</t>
+  </si>
+  <si>
+    <t>Unidade de atendimento, assistência ou tratamento móvel e congêneres, na área veterinária</t>
+  </si>
+  <si>
+    <t>Planos de atendimento e assistência médico</t>
+  </si>
+  <si>
+    <t>veterinária</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Saúde, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Patologia e eletricidade médica</t>
+  </si>
+  <si>
+    <t>Casas de recuperação</t>
+  </si>
+  <si>
+    <t>Ginástica, dança, esportes, natação, artes marciais e demais atividades físicas</t>
+  </si>
+  <si>
+    <t>Instrutor de ginástica, dança, esportes, natação, artes marciais e demais atividades físicas (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Ensino regular pré</t>
+  </si>
+  <si>
+    <t>escolar, fundamental e médio, inclusive cursos profissionalizantes</t>
+  </si>
+  <si>
+    <t>Professor de ensino regular pré</t>
+  </si>
+  <si>
+    <t>escolar, fundamental e médio, inclusive cursos profissionalizantes (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Ensino superior, cursos de graduação e demais cursos seqüenciais</t>
+  </si>
+  <si>
+    <t>Ensino superior, cursos de pós</t>
+  </si>
+  <si>
+    <t>graduação, mestrado, doutorado, pós</t>
+  </si>
+  <si>
+    <t>doutorado</t>
+  </si>
+  <si>
+    <t>Professor de ensino superior, inclusive cursos de graduação, pós</t>
+  </si>
+  <si>
+    <t>doutorado e demais cursos seqüenciais (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>escolas, moto</t>
+  </si>
+  <si>
+    <t>escolas e congêneres</t>
+  </si>
+  <si>
+    <t>Outros serviços de instrução, treinamento, orientação pedagógica e educacional, avaliação de conhecimentos de qualquer natureza (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Outros serviços de instrução, treinamento, orientação pedagógica e educacional, avaliação de conhecimentos de qualquer natureza</t>
+  </si>
+  <si>
+    <t>Administração de fundos quaisquer</t>
+  </si>
+  <si>
+    <t>Organização e administração de consórcios</t>
+  </si>
+  <si>
+    <t>Administração de cartão de crédito ou débito e congêneres</t>
+  </si>
+  <si>
+    <t>Administração de carteira de clientes</t>
+  </si>
+  <si>
+    <t>Administração de cheques pré</t>
+  </si>
+  <si>
+    <t>datados e congêneres</t>
+  </si>
+  <si>
+    <t>Arrendamento mercantil ("leasing") de quaisquer bens, inclusive cessão de direitos e obrigações, substituição de garantia, alteração, cancelamento e registro de contrato, e demais serviços relacionados ao arrendamento mercantil ("leasing")</t>
+  </si>
+  <si>
+    <t>Abertura de contas em geral, inclusive conta</t>
+  </si>
+  <si>
+    <t>corrente, conta de investimentos e aplicação e caderneta de poupança, no País e no exterior, bem como a manutenção das referidas contas ativas e inativas</t>
+  </si>
+  <si>
+    <t>Locação e manutenção de cofres particulares, de terminais eletrônicos, de terminais de atendimento e de bens e equipamentos em geral</t>
+  </si>
+  <si>
+    <t>Fornecimento ou emissão de atestados em geral, inclusive atestado de idoneidade, atestado de capacidade financeira e congêneres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastro, elaboração de ficha cadastral, renovação cadastral e congêneres, inclusão ou exclusão no Cadastro de Emitentes de Cheques sem Fundos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CCF ou em quaisquer outros bancos cadastrais</t>
+  </si>
+  <si>
+    <t>Emissão, reemissão e fornecimento de avisos, comprovantes e documentos em geral; abono de firmas; coleta e entrega de documentos, bens e valores; comunicação com outra agência ou com a administração central; licenciamento eletrônico de veículos; transferência de veículos; agenciamento fiduciário ou depositário; devolução de bens em custódia</t>
+  </si>
+  <si>
+    <t>Acesso, movimentação, atendimento e consulta a contas em geral, por qualquer meio ou processo, inclusive por telefone, fac</t>
+  </si>
+  <si>
+    <t>símile, internet e telex, acesso a terminais de atendimento, inclusive vinte e quatro horas; acesso a outro banco e à rede compartilhada; fornecimento de saldo, extrato e demais informações relativas a contas em geral, por qualquer meio ou processo</t>
+  </si>
+  <si>
+    <t>Emissão, reemissão, alteração, cessão, substituição, cancelamento e registro de contrato de crédito; estudo, análise e avaliação de operações de crédito; emissão, concessão, alteração ou contratação de aval, fiança, anuência e congêneres; serviços relativos à abertura de crédito, para quaisquer fins</t>
+  </si>
+  <si>
+    <t>Serviços relacionados a cobranças e recebimentos em geral, de títulos quaisquer, de contas ou carnês, de câmbio, de tributos e por conta de terceiros, inclusive os efetuados por meio eletrônico, automático ou por máquinas de atendimento; fornecimento de posição de cobrança, recebimento ou pagamento; emissão de fichas de compensação, impressos e documentos em geral</t>
+  </si>
+  <si>
+    <t>Serviços relacionados a pagamentos em geral, de títulos quaisquer, de contas ou carnês, de câmbio, de tributos e por conta de terceiros, inclusive os efetuados por meio eletrônico, automático ou por máquinas de atendimento; emissão de carnês</t>
+  </si>
+  <si>
+    <t>Devolução de títulos, protesto de títulos, sustação de protesto, manutenção de títulos, reapresentação de títulos, e demais serviços a eles relacionados</t>
+  </si>
+  <si>
+    <t>Serviços relacionados a operações de câmbio em geral, edição, alteração, prorrogação, cancelamento e baixa de contrato de câmbio; emissão de registro de exportação ou de crédito; cobrança ou depósito no exterior; emissão, fornecimento e cancelamento de cheques de viagem; fornecimento, transferência, cancelamento e demais serviços relativos à carta de crédito de importação, exportação e garantias recebidas; envio e recebimento de mensagens em geral relacionadas a operações de câmbio</t>
+  </si>
+  <si>
+    <t>Execução, por administração, empreitada ou subempreitada, de obra hidráulica e de outras obras semelhantes, inclusive sondagem, perfuração de poços, escavação, drenagem e irrigação (exceto o fornecimento de mercadorias produzidas pelo prestador de serviços fora do local da prestação dos serviços, que fica sujeito ao ICMS).</t>
+  </si>
+  <si>
+    <t>Execução, por administração, empreitada ou subempreitada, de obras de construção civil, elétrica e de outras obras semelhantes, e respectivos serviços auxiliares ou complementares, inclusive terraplanagem, pavimentação, concretagem e a instalação e montagem de produtos, peças e equipamentos que se agreguem ao imóvel (exceto o fornecimento de mercadorias produzidas pelo prestador de serviços fora do local da prestação dos serviços, que fica sujeito ao ICMS).</t>
+  </si>
+  <si>
+    <t>Demolição</t>
+  </si>
+  <si>
+    <t>Reparação, conservação e reforma de edifícios, estradas, pontes, portos e congêneres (exceto o fornecimento de mercadorias produzidas pelo prestador dos serviços, fora do local da prestação dos serviços, que fica sujeito ao ICMS).</t>
+  </si>
+  <si>
+    <t>Escoramento, contenção de encostas e serviços congêneres</t>
+  </si>
+  <si>
+    <t>Carpintaria e serralheria</t>
+  </si>
+  <si>
+    <t>Prestação de serviço do grupo Construção Civil, prestado por profissional autônomo.</t>
+  </si>
+  <si>
+    <t>Jardinagem, inclusive corte e poda de árvores (profissional autônomo).</t>
+  </si>
+  <si>
+    <t>Paisagismo</t>
+  </si>
+  <si>
+    <t>Colocação e instalação de tapetes, carpetes, assoalhos, cortinas, revestimentos de parede, vidros, divisórias, placas de gesso e congêneres, com material fornecido pelo tomador do serviço</t>
+  </si>
+  <si>
+    <t>Recuperação, raspagem, polimento e lustração de pisos e congêneres</t>
+  </si>
+  <si>
+    <t>Calafetação.</t>
+  </si>
+  <si>
+    <t>Varrição, coleta, remoção, incineração, tratamento, reciclagem, separação e destinação final de lixo, rejeitos e outros resíduos quaisquer</t>
+  </si>
+  <si>
+    <t>Limpeza, manutenção e conservação de vias e logradouros públicos, parques, jardins e congêneres</t>
+  </si>
+  <si>
+    <t>Limpeza, manutenção e conservação de imóveis, chaminés, piscinas e congêneres, inclusive fossas</t>
+  </si>
+  <si>
+    <t>Limpeza, manutenção e conservação de imóveis, chaminés, piscinas e congêneres, inclusive fossas, prestados por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Decoração</t>
+  </si>
+  <si>
+    <t>Jardinagem, inclusive corte e poda de árvores</t>
+  </si>
+  <si>
+    <t>Dedetização, desinfecção, desinsetização, imunização, higienização, desratização, pulverização e congêneres.</t>
+  </si>
+  <si>
+    <t>Limpeza e dragagem de rios, portos, canais, baías, lagos, lagoas, represas, açudes e congêneres</t>
+  </si>
+  <si>
+    <t>Serviços de exploração de rodovia mediante cobrança de preço ou pedágio dos usuários, envolvendo execução de serviços de conservação, manutenção, melhoramentos para adequação de capacidade e segurança de trânsito, operação, monitoração, assistência aos usuários e outros serviços definidos em contratos, atos de concessão ou de permissão ou em normas oficiais</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Manutenção e Decoração de Imóveis, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Engenharia, agronomia, arquitetura, urbanismo e congêneres</t>
+  </si>
+  <si>
+    <t>Engenheiro, agrônomo, arquiteto, urbanista e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia, agronomia, arquitetura, urbanismo e congêneres (regime especial </t>
+  </si>
+  <si>
+    <t>Agrimensura, geologia e congêneres</t>
+  </si>
+  <si>
+    <t>Agrimensor, geólogo e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrimensura, geologia e congêneres (regime especial </t>
+  </si>
+  <si>
+    <t>Elaboração de planos diretores, estudos de viabilidade, estudos organizacionais e outros, relacionados com obras e serviços de engenharia; elaboração de anteprojetos, projetos básicos e projetos executivos para trabalhos de engenharia</t>
+  </si>
+  <si>
+    <t>Controle e tratamento de efluentes de qualquer natureza e de agentes físicos, químicos e biológicos</t>
+  </si>
+  <si>
+    <t>Florestamento, reflorestamento, semeadura, adubação e congêneres</t>
+  </si>
+  <si>
+    <t>Acompanhamento e fiscalização da execução de obras de engenharia, arquitetura e urbanismo</t>
+  </si>
+  <si>
+    <t>Aerofotogrametria (inclusive interpretação), cartografia, mapeamento, levantamentos topográficos, batimétricos, geográficos, geodésicos, geológicos, geofísicos e congêneres</t>
+  </si>
+  <si>
+    <t>Cartógrafo, geógrafo, profissional de geodésia e geofísico (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Topógrafo (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Pesquisa, perfuração, cimentação, mergulho, perfilagem, concretação, testemunhagem, pescaria, estimulação e outros serviços relacionados com a exploração e explotação de petróleo, gás natural e de outros recursos minerais</t>
+  </si>
+  <si>
+    <t>Emissão, fornecimento, devolução, sustação, cancelamento e oposição de cheques quaisquer, avulso ou por talão</t>
+  </si>
+  <si>
+    <t>Serviços relacionados a crédito imobiliário, avaliação e vistoria de imóvel ou obra, análise técnica e jurídica, emissão, reemissão, alteração, transferência e renegociação de contrato, emissão e reemissão do termo de quitação e demais serviços relacionados a crédito imobiliário</t>
+  </si>
+  <si>
+    <t>Fornecimento, emissão, reemissão, renovação e manutenção de cartão magnético, cartão de crédito, cartão de débito, cartão salário e congêneres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custódia em geral, inclusive de títulos e valores mobiliários, realizada pela Bolsa de Valores, Mercadorias e Futuros </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BM&amp;FBOVESPA S.A.</t>
+  </si>
+  <si>
+    <t>Custódia em geral, inclusive de títulos e valores mobiliários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compensação de títulos quaisquer; serviços relacionados a depósito, inclusive depósito identificado, a saque de contas quaisquer, por qualquer meio ou processo, inclusive em terminais eletrônicos e de atendimento, realizados pela Bolsa de Valores, Mercadorias e Futuros </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BM&amp;FBOVESPA S.A</t>
+  </si>
+  <si>
+    <t>Compensação de cheques e títulos quaisquer; serviços relacionados a depósito, inclusive depósito identificado, a saque de contas quaisquer, por qualquer meio ou processo, inclusive em terminais eletrônicos e de atendimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissão, reemissão, liquidação, alteração, cancelamento e baixa de ordens de pagamento, ordens de crédito e similares, por qualquer meio ou processo; serviços relacionados à transferência de valores, dados, fundos, pagamentos e similares, inclusive entre contas em geral, realizados pela Bolsa de Valores, Mercadorias e Futuros </t>
+  </si>
+  <si>
+    <t>Emissão, reemissão, liquidação, alteração, cancelamento e baixa de ordens de pagamento, ordens de crédito e similares, por qualquer meio ou processo; serviços relacionados à transferência de valores, dados, fundos, pagamentos e similares, inclusive entre contas em geral</t>
+  </si>
+  <si>
+    <t>Administração de distribuição de co</t>
+  </si>
+  <si>
+    <t>seguros</t>
+  </si>
+  <si>
+    <t>Serviços de regulação de sinistros vinculados a contratos de seguros; inspeção e avaliação de riscos para cobertura de contratos de seguros; prevenção e gerência de riscos seguráveis e congêneres</t>
+  </si>
+  <si>
+    <t>Representante de qualquer natureza, inclusive comercial (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Representação de qualquer natureza, inclusive comercial</t>
+  </si>
+  <si>
+    <t>Distribuidor de bens de terceiros (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Distribuição de bens de terceiros</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de planos de previdência privada</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de câmbio</t>
+  </si>
+  <si>
+    <t>Agenciamento ou intermediação de seguros</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de cartões de crédito</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de planos de saúde</t>
+  </si>
+  <si>
+    <t>Agente, corretor ou intermediário de câmbio, de seguros, de cartões de crédito, de planos de saúde e de planos de previdência privada, exceto corretor de seguros (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Corretagem de seguros</t>
+  </si>
+  <si>
+    <t>Corretor de seguros (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de títulos em geral, valores mobiliários e contratos quaisquer</t>
+  </si>
+  <si>
+    <t>Agente, corretor ou intermediário de títulos em geral, valores mobiliários e contratos quaisquer (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de direitos de propriedade industrial (inclusive marcas e patentes), artística ou literária</t>
+  </si>
+  <si>
+    <t>Agente, corretor ou intermediário de direitos de propriedade industrial (inclusive marcas e patentes), artística ou literária (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de contratos de arrendamento mercantil ("leasing")</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de contratos de franquia ("franchising")</t>
+  </si>
+  <si>
+    <t>Afiador de utensílios domésticos e afinador de instrumentos musicais, não estabelecidos (profissional autônomo).</t>
+  </si>
+  <si>
+    <t>Retífica e recondicionamento de motores (exceto peças e partes empregadas, que ficam sujeitas ao ICMS)</t>
+  </si>
+  <si>
+    <t>Recauchutagem ou regeneração de pneus, borracharia</t>
+  </si>
+  <si>
+    <t>Restauração, recondicionamento, acondicionamento, pintura, beneficiamento, lavagem, secagem, tingimento, galvanoplastia, anodização, corte, recorte, polimento, plastificação e congêneres, de objetos quaisquer</t>
+  </si>
+  <si>
+    <t>Alfaiataria, costura e congêneres, quando o material for fornecido pelo usuário final, exceto aviamento.</t>
+  </si>
+  <si>
+    <t>Alfaiataria, costura e congêneres, quando o material for fornecido pelo usuário final, exceto aviamento (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Tinturaria e lavanderia</t>
+  </si>
+  <si>
+    <t>Tintureiro individual</t>
+  </si>
+  <si>
+    <t>Tapeçaria e reforma de estofamentos em geral.</t>
+  </si>
+  <si>
+    <t>Funilaria e lanternagem, incluindo a pintura</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Conservação e Limpeza e Reparação de Bens Móveis, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Engraxate (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Cessão de direito de uso de marcas e de sinais de propaganda</t>
+  </si>
+  <si>
+    <t>Exploração de salões de festas, centro de convenções, escritórios virtuais, "stands", quadras esportivas, estádios, ginásios, auditórios, casas de espetáculos, parques de diversões, canchas e congêneres, para realização de eventos ou negócios de qualquer natureza</t>
+  </si>
+  <si>
+    <t>Locação, sublocação, arrendamento, direito de passagem ou permissão de uso, compartilhado ou não, de ferrovia, rodovia, postes, cabos, dutos e condutos de qualquer natureza</t>
+  </si>
+  <si>
+    <t>Cessão de andaimes, palcos, coberturas e outras estruturas de uso temporário</t>
+  </si>
+  <si>
+    <t>Guarda e estacionamento de veículos terrestres automotores</t>
+  </si>
+  <si>
+    <t>Guarda e estacionamento de veículos terrestres automotores, em postos de gasolina</t>
+  </si>
+  <si>
+    <t>Guarda e estacionamento de veículos terrestres automotores, do tipo "valet service"</t>
+  </si>
+  <si>
+    <t>Guarda e estacionamento de aeronaves e de embarcações</t>
+  </si>
+  <si>
+    <t>Vigilância, segurança ou monitoramento de bens e pessoas</t>
+  </si>
+  <si>
+    <t>Vigilância, segurança ou monitoramento de bens e pessoas (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Escolta, inclusive de veículos e cargas</t>
+  </si>
+  <si>
+    <t>Escolta, inclusive de veículos e cargas (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Armazenamento, depósito, carga, descarga, arrumação e guarda de bens de qualquer espécie</t>
+  </si>
+  <si>
+    <t>Serviços portuários, ferroportuários, utilização de porto, movimentação de passageiros, reboque de embarcações, rebocador escoteiro, atracação, desatracação, serviços de praticagem, capatazia, armazenagem de qualquer natureza, serviços acessórios, movimentação de mercadorias, serviços de apoio marítimo, de movimentação ao largo, serviços de armadores, estiva, conferência, logística e congêneres</t>
+  </si>
+  <si>
+    <t>Serviços aeroportuários, utilização de aeroporto, movimentação de passageiros, armazenagem de qualquer natureza, capatazia, movimentação de aeronaves, serviços de apoio aeroportuários, serviços acessórios, movimentação de mercadorias, logística e congêneres</t>
+  </si>
+  <si>
+    <t>Serviços de terminais rodoviários, ferroviários, metroviários, movimentação de passageiros, mercadorias, inclusive suas operações, logística e congêneres</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Guarda e Locação, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Diversões Públicas, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Prestação de serviços relacionados a espetáculos teatrais, espetáculos circenses, parques de diversões, centros de lazer, óperas, ballet, danças, concertos, recitais e congêneres, prestados por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Espetáculos teatrais</t>
+  </si>
+  <si>
+    <t>Exibições cinematográficas</t>
+  </si>
+  <si>
+    <t>Espetáculos circenses</t>
+  </si>
+  <si>
+    <t>Programas de auditório</t>
+  </si>
+  <si>
+    <t>Parques de diversões, centros de lazer e congêneres.</t>
+  </si>
+  <si>
+    <t>Boates, taxi</t>
+  </si>
+  <si>
+    <t>dancing, night</t>
+  </si>
+  <si>
+    <t>club, cabaré, danceteria, casas noturnas, bares noturnos, restaurantes dançantes e outros estabelecimentos de diversão pública com cobrança de couvert artístico e congêneres</t>
+  </si>
+  <si>
+    <t>Shows, bailes, desfiles, festivais e congêneres</t>
+  </si>
+  <si>
+    <t>Óperas, ballet, danças, concertos, recitais e congêneres</t>
+  </si>
+  <si>
+    <t>Feiras, exposições, congressos e congêneres</t>
+  </si>
+  <si>
+    <t>Corridas e competições de animais</t>
+  </si>
+  <si>
+    <t>Competições esportivas ou de destreza física ou intelectual, com ou sem a participação do espectador</t>
+  </si>
+  <si>
+    <t>Desfiles de blocos carnavalescos ou folclóricos, trios elétricos e congêneres</t>
+  </si>
+  <si>
+    <t>Parques de diversões, centros de lazer e congêneres (contribuinte não estabelecido no Município de São Paulo)</t>
+  </si>
+  <si>
+    <t>Prestação de serviço de Diversões Públicas, prestado por contribuinte não estabelecido no Município de São Paulo</t>
+  </si>
+  <si>
+    <t>Espetáculos teatrais e espetáculos circenses, óperas, ballet, danças, concertos, recitais e congêneres (contribuinte não estabelecido no Município de São Paulo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competições esportivas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grande Prêmio Brasil de Fórmula 1. Quando prestado por contribuinte estabelecido no Município de São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grande Prêmio Brasil de Fórmula 1. Quando prestado por contribuinte não estabelecido no Município de São Paulo</t>
+  </si>
+  <si>
+    <t>Exibição de filmes, entrevistas, musicais, espetáculos, shows, concertos, desfiles, óperas, competições esportivas, de destreza intelectual ou congêneres</t>
+  </si>
+  <si>
+    <t>Bilhar por tempo (snooker), bilhar por ficha e pebolim</t>
+  </si>
+  <si>
+    <t>Boliche</t>
+  </si>
+  <si>
+    <t>Divertimento eletrônico, inclusive vitrola automática, cabines privê, computadores, videogames, videokê e demais equipamentos acionados por fichas, cartões, ou quaisquer outros dispositivos</t>
+  </si>
+  <si>
+    <t>Divertimento eletrônico, inclusive vitrola automática, cabines privê, computadores, videogames, videokê e demais equipamentos acionados por fichas, cartões, ou quaisquer outros dispositivos, serviços prestados em estabelecimentos instalados em shopping centers e parques de diversões</t>
+  </si>
+  <si>
+    <t>Máquina Eletronicamente Programável ou outra máquina de entretenimento, com distribuição de prêmios</t>
+  </si>
+  <si>
+    <t>Máquina Eletronicamente Programável ou outra máquina de entretenimento, com distribuição de prêmios, instalada em estabelecimentos do tipo bingo</t>
+  </si>
+  <si>
+    <t>Carteado, dominó, víspora, e outros tipos de diversões com cobrança facultativa de ingresso</t>
+  </si>
+  <si>
+    <t>Execução de música, individualmente ou por conjunto</t>
+  </si>
+  <si>
+    <t>Fornecimento de música para ambientes fechados ou não, mediante transmissão por qualquer processo</t>
+  </si>
+  <si>
+    <t>Distribuição e venda de cartelas, sorteios ou prêmios em bingos, telebingos e assemelhados</t>
+  </si>
+  <si>
+    <t>Serviços de distribuição e venda de bilhetes e demais produtos de loteria, cartões, pules ou cupons de apostas, sorteios, prêmios, inclusive os decorrentes de títulos de capitalização e congêneres</t>
+  </si>
+  <si>
+    <t>Barbearia, cabeleireiros, manicuros, pedicuros e congêneres</t>
+  </si>
+  <si>
+    <t>Esteticistas, tratamento de pele, depilação e congêneres</t>
+  </si>
+  <si>
+    <t>Banhos, duchas, sauna, massagens e congêneres.</t>
+  </si>
+  <si>
+    <t>Centros de emagrecimento, "spa" e congêneres.</t>
+  </si>
+  <si>
+    <t>Prestação de serviço do grupo Higiene, e Apresentação Pessoal, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Guardador, tratador, amestrador, embelezador, alojador e congêneres, relativos a animais (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços de investigações particulares, detetives e congêneres</t>
+  </si>
+  <si>
+    <t>Artista circense e músico, não estabelecido (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços de artistas, atletas, modelos e manequins</t>
+  </si>
+  <si>
+    <t>Artistas, atletas, modelos e manequins (profissional autônomo).</t>
+  </si>
+  <si>
+    <t>Serviços de ourivesaria e lapidação (quando o material for fornecido pelo tomador do serviço).</t>
+  </si>
+  <si>
+    <t>Serviços relativos a obras de arte sob encomenda</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Diversos, prestado por profissional autônomo.</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de contratos de faturização ("factoring")</t>
+  </si>
+  <si>
+    <t>Agente, corretor ou intermediário de contratos de arrendamento mercantil ("leasing"), de franquia ("franchising") e de faturização ("factoring") (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de bens, realizados no âmbito de Bolsas de Mercadorias e Futuros, por quaisquer meios</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de bens móveis ou imóveis, não abrangidos em outros itens ou subitens, por quaisquer meios</t>
+  </si>
+  <si>
+    <t>Agente, corretor ou intermediário de bens móveis ou imóveis, não abrangidos em outros itens ou subitens, inclusive aqueles realizados no âmbito de Bolsas de Mercadorias e Futuros, por quaisquer meios (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Agenciamento marítimo</t>
+  </si>
+  <si>
+    <t>Agente marítimo (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Agenciamento de notícias</t>
+  </si>
+  <si>
+    <t>Agente de notícias (profissional autônomo).</t>
+  </si>
+  <si>
+    <t>Agenciamento de publicidade e propaganda, inclusive o agenciamento de veiculação por quaisquer meios</t>
+  </si>
+  <si>
+    <t>Agente de publicidade e propaganda, inclusive o de veiculação por quaisquer meios (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Recrutamento, agenciamento, seleção e colocação de mão</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>obra</t>
+  </si>
+  <si>
+    <t>Fornecimento de mão</t>
+  </si>
+  <si>
+    <t>obra, mesmo em caráter temporário, inclusive de empregados ou trabalhadores, avulsos ou temporários, contratados pelo prestador de serviço</t>
+  </si>
+  <si>
+    <t>obra, mesmo em caráter temporário, inclusive de empregados ou trabalhadores, avulsos ou temporários, contratados pelo prestador de serviço (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Franquia ("franchising")</t>
+  </si>
+  <si>
+    <t>Leilão e congêneres</t>
+  </si>
+  <si>
+    <t>Leiloeiro e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Cobranças e recebimentos por conta de terceiros, protestos de títulos, sustação de protestos, devolução de títulos não pagos, manutenção de títulos vencidos, fornecimentos de posição de cobrança ou recebimento e outros serviços correlatos (exceto serviços de instituições financeiras)</t>
+  </si>
+  <si>
+    <t>Funerais, inclusive fornecimento de caixão, urna ou esquifes; aluguel de capela; transporte do corpo cadavérico; fornecimento de flores, coroas e outros paramentos; desembaraço de certidão de óbito; fornecimento de véu, essa e outros adornos; embalsamento, embelezamento, conservação ou restauração de cadáveres</t>
+  </si>
+  <si>
+    <t>Cremação de corpos e partes de corpos cadavéricos</t>
+  </si>
+  <si>
+    <t>Planos ou convênio funerários</t>
+  </si>
+  <si>
+    <t>Manutenção e conservação de jazigos e cemitérios</t>
+  </si>
+  <si>
+    <t>Serviços de desembaraço aduaneiro, comissários, despachantes e congêneres</t>
+  </si>
+  <si>
+    <t>Serviços de desembaraço aduaneiro, comissários, despachantes e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Detetive particular (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Produção, mediante ou sem encomenda prévia, de eventos, espetáculos, entrevistas, shows, ballet, danças, desfiles, bailes, teatros, óperas, concertos, recitais, festivais e congêneres</t>
+  </si>
+  <si>
+    <t>Fonografia ou gravação de sons, inclusive trucagem, dublagem, mixagem e congêneres</t>
+  </si>
+  <si>
+    <t>Fotografia e cinematografia, inclusive revelação, ampliação, cópia, retocagem, reprodução, trucagem e congêneres (inclusive para televisão)</t>
+  </si>
+  <si>
+    <t>Reprografia, microfilmagem e digitalização</t>
+  </si>
+  <si>
+    <t>Colocação de molduras e congêneres</t>
+  </si>
+  <si>
+    <t>Colocador de molduras e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Encadernação, gravação e douração de livros, revistas e congêneres.</t>
+  </si>
+  <si>
+    <t>Encadernador, gravador e dourador de livros, revistas e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Artes gráficas, tipografia, diagramação, paginação e gravação</t>
+  </si>
+  <si>
+    <t>Artes gráficas, tipografia, diagramação, paginação e gravação (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Composição gráfica, fotocomposição, clicheria, zincografia, litografia, fotolitografia, estereotipia, serigrafia e outras matrizes de impressão</t>
+  </si>
+  <si>
+    <t>Composição gráfica, fotocomposição, clicheria, zincografia, litografia, fotolitografia, estereotipia, serigrafia e outras matrizes de impressão (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Serviços de chaveiros, confecção de carimbos, placas, sinalização visual, banners, adesivos e congêneres</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Fotográficos, Cinematográficos, Reprográficos e Afins, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Hospedagem em hotéis e hotelaria marítima</t>
+  </si>
+  <si>
+    <t>Hospedagem em pensões, albergues, pousadas, hospedarias, ocupação por temporada com fornecimento de serviços e congêneres</t>
+  </si>
+  <si>
+    <t>Hospedagem em motéis</t>
+  </si>
+  <si>
+    <t>Hospedagem em apart</t>
+  </si>
+  <si>
+    <t>service condominiais, flat, apart</t>
+  </si>
+  <si>
+    <t>hotéis, hotéis residência, residence</t>
+  </si>
+  <si>
+    <t>service, suite service e congêneres</t>
+  </si>
+  <si>
+    <t>Agente, organizador, promotor, intermediário e executor de programas de turismo, passeios, viagens, excursões, hospedagens e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Agenciamento, organização, promoção, intermediação e execução de programas de turismo, passeios, viagens, excursões, hospedagens e congêneres</t>
+  </si>
+  <si>
+    <t>Guias de turismo</t>
+  </si>
+  <si>
+    <t>Guia de turismo (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Planejamento, organização e administração de feiras, exposições, congressos e congêneres</t>
+  </si>
+  <si>
+    <t>Planejamento, organização e administração de feiras, exposições, congressos e congêneres (profissional autônomo)</t>
+  </si>
+  <si>
+    <t>Organização de festas e recepções; bufê (exceto o fornecimento de alimentação e bebidas, que fica sujeito ao ICMS)</t>
+  </si>
+  <si>
+    <t>Recreação e animação, inclusive em festas e eventos de qualquer natureza</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Turismo, Hospedagem, Eventos e Assemelhados, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Instalação e montagem de aparelhos, máquinas e equipamentos, prestados ao usuário final, exclusivamente com material por ele fornecido</t>
+  </si>
+  <si>
+    <t>Instalação e montagem industrial, prestada ao usuário final, exclusivamente com material por ele fornecido</t>
+  </si>
+  <si>
+    <t>Prestação de serviço do grupo Instalação, Colocação e Montagem de Bens, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>Lustração de bens móveis</t>
+  </si>
+  <si>
+    <t>Lubrificação, lavagem e limpeza não automáticas de veículos, exceto em postos de gasolina</t>
+  </si>
+  <si>
+    <t>Lubrificação, lavagem e limpeza de veículos, inclusive automáticas, em postos de gasolina</t>
+  </si>
+  <si>
+    <t>Lubrificação, lavagem e limpeza automáticas de veículos, exceto em postos de gasolina</t>
+  </si>
+  <si>
+    <t>Lubrificação, limpeza, revisão de máquinas, aparelhos, equipamentos, motores, elevadores e objetos de qualquer natureza, exceto veículos</t>
+  </si>
+  <si>
+    <t>Carga e recarga de aparelhos, equipamentos e objetos de quaisquer natureza</t>
+  </si>
+  <si>
+    <t>Conserto, restauração, manutenção, conservação e pintura de veículos, exceto os serviços executados por concessionária ou revendedor autorizado (exceto peças e partes empregadas, que ficam sujeitas ao ICMS)</t>
+  </si>
+  <si>
+    <t>Conserto, restauração, manutenção, conservação e pintura de veículos executados por concessionária ou revendedor autorizado (exceto peças e partes empregadas, que ficam sujeitas ao ICMS).</t>
+  </si>
+  <si>
+    <t>Conserto, restauração, manutenção e conservação de máquinas, aparelhos, equipamentos, motores, elevadores ou de quaisquer outros objetos, exceto veículos (exceto peças e partes empregadas, que ficam sujeitas ao ICMS)</t>
+  </si>
+  <si>
+    <t>Blindagem</t>
+  </si>
+  <si>
+    <t>Sapateiro remendão (profissional autônomo).</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>Análise e desenvolvimento de sistemas.</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>Programação.</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>Processamento de dados e congêneres.</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>Elaboração de programas de computadores, inclusive de jogos eletrônicos.</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>Licenciamento ou cessão de direito de uso de programas de computação.</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>Assessoria e consultoria em informática.</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>Suporte técnico em informática, inclusive instalação, configuração e manutenção de programas de computação e bancos de dados.</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>Planejamento, confecção, manutenção e atualização de páginas eletrônicas.</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>Serviços de pesquisas e desenvolvimento de qualquer natureza.</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>(Vetado)</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>Cessão de direito de uso de marcas e de sinais de propaganda.</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>Exploração de salões de festas, centro de convenções, escritórios virtuais, stands, quadras esportivas, estádios, ginásios, auditórios, casas de espetáculos, parques de diversões, canchas e congêneres, para realização de eventos ou negócios de qualquer natureza.</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>Locação, sublocação, arrendamento, direito de passagem ou permissão de uso, compartilhado ou não, de ferrovia, rodovia, postes, cabos, dutos e condutos de qualquer natureza.</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>Cessão de andaimes, palcos, coberturas e outras estruturas de uso temporário.</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>Medicina e biomedicina.</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>sonografia, ressonância magnética, radiologia, tomografia e congêneres.</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>Hospitais, clínicas, laboratórios, sanatórios, manicômios, casas de saúde, prontos</t>
+  </si>
+  <si>
+    <t>socorros, ambulatórios e congêneres.</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>Instrumentação cirúrgica.</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>Enfermagem, inclusive serviços auxiliares.</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>Serviços farmacêuticos.</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>Terapia ocupacional, fisioterapia e fonoaudiologia.</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>Terapias de qualquer espécie destinadas ao tratamento físico, orgânico e mental.</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>Próteses sob encomenda.</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>Casas de repouso e de recuperação, creches, asilos e congêneres.</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>Inseminação artificial, fertilização in vitro e congêneres.</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>Bancos de sangue, leite, pele, olhos, óvulos, sêmen e congêneres.</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>Coleta de sangue, leite, tecidos, sêmen, órgãos e materiais biológicos de qualquer espécie.</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>Unidade de atendimento, assistência ou tratamento móvel e congêneres.</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>Planos de medicina de grupo ou individual e convênios para prestação de assistência médica, hospitalar, odontológica e congêneres.</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>Outros planos de saúde que se cumpram através de serviços de terceiros contratados, credenciados, cooperados ou apenas pagos pelo operador do plano mediante indicação do beneficiário.</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>Medicina veterinária e zootecnia.</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>socorros e congêneres, na área veterinária.</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>Laboratórios de análise na área veterinária.</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>Bancos de sangue e de órgãos e congêneres.</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>5.07</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>Guarda, tratamento, amestramento, embelezamento, alojamento e congêneres.</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>veterinária.</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>Barbearia, cabeleireiros, manicuros, pedicuros e congêneres.</t>
+  </si>
+  <si>
+    <t>6.02</t>
+  </si>
+  <si>
+    <t>Esteticistas, tratamento de pele, depilação e congêneres.</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de câmbio, de seguros, de cartões de crédito, de planos de saúde e de planos de previdência privada.</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de títulos em geral, valores mobiliários e contratos quaisquer.</t>
+  </si>
+  <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de direitos de propriedade industrial, artística ou literária.</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de contratos de arrendamento mercantil (leasing), de franquia (franchising) e de faturização (factoring).</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>Agenciamento, corretagem ou intermediação de bens móveis ou imóveis, não abrangidos em outros itens ou subitens, inclusive aqueles realizados no âmbito de Bolsas de Mercadorias e Futuros, por quaisquer meios.</t>
+  </si>
+  <si>
+    <t>10.06</t>
+  </si>
+  <si>
+    <t>Agenciamento marítimo.</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>Agenciamento de notícias.</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>Agenciamento de publicidade e propaganda, inclusive o agenciamento de veiculação por quaisquer meios.</t>
+  </si>
+  <si>
+    <t>10.09</t>
+  </si>
+  <si>
+    <t>Representação de qualquer natureza, inclusive comercial.</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>Distribuição de bens de terceiros.</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>Guarda e estacionamento de veículos terrestres automotores, de aeronaves e de embarcações.</t>
+  </si>
+  <si>
+    <t>11.02</t>
+  </si>
+  <si>
+    <t>Vigilância, segurança ou monitoramento de bens e pessoas.</t>
+  </si>
+  <si>
+    <t>11.03</t>
+  </si>
+  <si>
+    <t>Escolta, inclusive de veículos e cargas.</t>
+  </si>
+  <si>
+    <t>11.04</t>
+  </si>
+  <si>
+    <t>Armazenamento, depósito, carga, descarga, arrumação e guarda de bens de qualquer espécie.</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>Espetáculos teatrais.</t>
+  </si>
+  <si>
+    <t>12.02</t>
+  </si>
+  <si>
+    <t>Exibições cinematográficas.</t>
+  </si>
+  <si>
+    <t>12.03</t>
+  </si>
+  <si>
+    <t>Espetáculos circenses.</t>
+  </si>
+  <si>
+    <t>12.04</t>
+  </si>
+  <si>
+    <t>Programas de auditório.</t>
+  </si>
+  <si>
+    <t>12.05</t>
+  </si>
+  <si>
+    <t>12.06</t>
+  </si>
+  <si>
+    <t>dancing e congêneres.</t>
+  </si>
+  <si>
+    <t>12.07</t>
+  </si>
+  <si>
+    <t>Shows, ballet, danças, desfiles, bailes, óperas, concertos, recitais, festivais e congêneres.</t>
+  </si>
+  <si>
+    <t>12.08</t>
+  </si>
+  <si>
+    <t>Feiras, exposições, congressos e congêneres.</t>
+  </si>
+  <si>
+    <t>12.09</t>
+  </si>
+  <si>
+    <t>Bilhares, boliches e diversões eletrônicas ou não.</t>
+  </si>
+  <si>
+    <t>12.10</t>
+  </si>
+  <si>
+    <t>Corridas e competições de animais.</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>Competições esportivas ou de destreza física ou intelectual, com ou sem a participação do espectador.</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>Execução de música.</t>
+  </si>
+  <si>
+    <t>12.13</t>
+  </si>
+  <si>
+    <t>Produção, mediante ou sem encomenda prévia, de eventos, espetáculos, entrevistas, shows, ballet, danças, desfiles, bailes, teatros, óperas, concertos, recitais, festivais e congêneres.</t>
+  </si>
+  <si>
+    <t>12.14</t>
+  </si>
+  <si>
+    <t>Fornecimento de música para ambientes fechados ou não, mediante transmissão por qualquer processo.</t>
+  </si>
+  <si>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>Desfiles de blocos carnavalescos ou folclóricos, trios elétricos e congêneres.</t>
+  </si>
+  <si>
+    <t>12.16</t>
+  </si>
+  <si>
+    <t>Exibição de filmes, entrevistas, musicais, espetáculos, shows, concertos, desfiles, óperas, competições esportivas, de destreza intelectual ou congêneres.</t>
+  </si>
+  <si>
+    <t>12.17</t>
+  </si>
+  <si>
+    <t>Recreação e animação, inclusive em festas e eventos de qualquer natureza.</t>
+  </si>
+  <si>
+    <t>13.01</t>
+  </si>
+  <si>
+    <t>13.02</t>
+  </si>
+  <si>
+    <t>Fonografia ou gravação de sons, inclusive trucagem, dublagem, mixagem e congêneres.</t>
+  </si>
+  <si>
+    <t>13.03</t>
+  </si>
+  <si>
+    <t>Fotografia e cinematografia, inclusive revelação, ampliação, cópia, reprodução, trucagem e congêneres.</t>
+  </si>
+  <si>
+    <t>13.04</t>
+  </si>
+  <si>
+    <t>Reprografia, microfilmagem e digitalização.</t>
+  </si>
+  <si>
+    <t>13.05</t>
+  </si>
+  <si>
+    <t>Composição gráfica, fotocomposição, clicheria, zincografia, litografia, fotolitografia.</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>Lubrificação, limpeza, lustração, revisão, carga e recarga, conserto, restauração, blindagem, manutenção e conservação de máquinas, veículos, aparelhos, equipamentos, motores, elevadores ou de qualquer objeto (exceto peças e partes empregadas, que ficam sujeitas ao ICMS).</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>Assistência técnica.</t>
+  </si>
+  <si>
+    <t>14.03</t>
+  </si>
+  <si>
+    <t>Recondicionamento de motores (exceto peças e partes empregadas, que ficam sujeitas ao ICMS).</t>
+  </si>
+  <si>
+    <t>14.04</t>
+  </si>
+  <si>
+    <t>Recauchutagem ou regeneração de pneus.</t>
+  </si>
+  <si>
+    <t>14.05</t>
+  </si>
+  <si>
+    <t>Restauração, recondicionamento, acondicionamento, pintura, beneficiamento, lavagem, secagem, tingimento, galvanoplastia, anodização, corte, recorte, polimento, plastificação e congêneres, de objetos quaisquer.</t>
+  </si>
+  <si>
+    <t>14.06</t>
+  </si>
+  <si>
+    <t>Instalação e montagem de aparelhos, máquinas e equipamentos, inclusive montagem industrial, prestados ao usuário final, exclusivamente com material por ele fornecido.</t>
+  </si>
+  <si>
+    <t>14.07</t>
+  </si>
+  <si>
+    <t>Colocação de molduras e congêneres.</t>
+  </si>
+  <si>
+    <t>14.08</t>
+  </si>
+  <si>
+    <t>14.09</t>
+  </si>
+  <si>
+    <t>Alfaiataria e costura, quando o material for fornecido pelo usuário final, exceto aviamento.</t>
+  </si>
+  <si>
+    <t>14.10</t>
+  </si>
+  <si>
+    <t>Tinturaria e lavanderia.</t>
+  </si>
+  <si>
+    <t>14.11</t>
+  </si>
+  <si>
+    <t>14.12</t>
+  </si>
+  <si>
+    <t>Funilaria e lanternagem.</t>
+  </si>
+  <si>
+    <t>14.13</t>
+  </si>
+  <si>
+    <t>Carpintaria e serralheria.</t>
+  </si>
+  <si>
+    <t>15.01</t>
+  </si>
+  <si>
+    <t>Administração de fundos quaisquer, de consórcio, de cartão de crédito ou débito e congêneres, de carteira de clientes, de cheques pré</t>
+  </si>
+  <si>
+    <t>datados e congêneres.</t>
+  </si>
+  <si>
+    <t>15.02</t>
+  </si>
+  <si>
+    <t>corrente, conta de investimentos e aplicação e caderneta de poupança, no País e no exterior, bem como a manutenção das referidas contas ativas e inativas.</t>
+  </si>
+  <si>
+    <t>15.03</t>
+  </si>
+  <si>
+    <t>Locação e manutenção de cofres particulares, de terminais eletrônicos, de terminais de atendimento e de bens e equipamentos em geral.</t>
+  </si>
+  <si>
+    <t>15.04</t>
+  </si>
+  <si>
+    <t>Fornecimento ou emissão de atestados em geral, inclusive atestado de idoneidade, atestado de capacidade financeira e congêneres.</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>Cadastro, elaboração de ficha cadastral, renovação cadastral e congêneres, inclusão ou exclusão no Cadastro de Emitentes de Cheques sem Fundos – CCF ou em quaisquer outros bancos cadastrais.</t>
+  </si>
+  <si>
+    <t>15.06</t>
+  </si>
+  <si>
+    <t>Emissão, reemissão e fornecimento de avisos, comprovantes e documentos em geral; abono de firmas; coleta e entrega de documentos, bens e valores; comunicação com outra agência ou com a administração central; licenciamento eletrônico de veículos; transferência de veículos; agenciamento fiduciário ou depositário; devolução de bens em custódia.</t>
+  </si>
+  <si>
+    <t>15.07</t>
+  </si>
+  <si>
+    <t>símile, internet e telex, acesso a terminais de atendimento, inclusive vinte e quatro horas; acesso a outro banco e a rede compartilhada; fornecimento de saldo, extrato e demais informações relativas a contas em geral, por qualquer meio ou processo.</t>
+  </si>
+  <si>
+    <t>15.08</t>
+  </si>
+  <si>
+    <t>Emissão, reemissão, alteração, cessão, substituição, cancelamento e registro de contrato de crédito; estudo, análise e avaliação de operações de crédito; emissão, concessão, alteração ou contratação de aval, fiança, anuência e congêneres; serviços relativos a abertura de crédito, para quaisquer fins.</t>
+  </si>
+  <si>
+    <t>15.09</t>
+  </si>
+  <si>
+    <t>Arrendamento mercantil (leasing) de quaisquer bens, inclusive cessão de direitos e obrigações, substituição de garantia, alteração, cancelamento e registro de contrato, e demais serviços relacionados ao arrendamento mercantil (leasing).</t>
+  </si>
+  <si>
+    <t>15.10</t>
+  </si>
+  <si>
+    <t>Serviços relacionados a cobranças, recebimentos ou pagamentos em geral, de títulos quaisquer, de contas ou carnês, de câmbio, de tributos e por conta de terceiros, inclusive os efetuados por meio eletrônico, automático ou por máquinas de atendimento; fornecimento de posição de cobrança, recebimento ou pagamento; emissão de carnês, fichas de compensação, impressos e documentos em geral.</t>
+  </si>
+  <si>
+    <t>15.11</t>
+  </si>
+  <si>
+    <t>Devolução de títulos, protesto de títulos, sustação de protesto, manutenção de títulos, reapresentação de títulos, e demais serviços a eles relacionados.</t>
+  </si>
+  <si>
+    <t>15.12</t>
+  </si>
+  <si>
+    <t>Custódia em geral, inclusive de títulos e valores mobiliários.</t>
+  </si>
+  <si>
+    <t>15.13</t>
+  </si>
+  <si>
+    <t>Serviços relacionados a operações de câmbio em geral, edição, alteração, prorrogação, cancelamento e baixa de contrato de câmbio; emissão de registro de exportação ou de crédito; cobrança ou depósito no exterior; emissão, fornecimento e cancelamento de cheques de viagem; fornecimento, transferência, cancelamento e demais serviços relativos a carta de crédito de importação, exportação e garantias recebidas; envio e recebimento de mensagens em geral relacionadas a operações de câmbio.</t>
+  </si>
+  <si>
+    <t>15.14</t>
+  </si>
+  <si>
+    <t>Fornecimento, emissão, reemissão, renovação e manutenção de cartão magnético, cartão de crédito, cartão de débito, cartão salário e congêneres.</t>
+  </si>
+  <si>
+    <t>15.15</t>
+  </si>
+  <si>
+    <t>Compensação de cheques e títulos quaisquer; serviços relacionados a depósito, inclusive depósito identificado, a saque de contas quaisquer, por qualquer meio ou processo, inclusive em terminais eletrônicos e de atendimento.</t>
+  </si>
+  <si>
+    <t>15.16</t>
+  </si>
+  <si>
+    <t>Emissão, reemissão, liquidação, alteração, cancelamento e baixa de ordens de pagamento, ordens de crédito e similares, por qualquer meio ou processo; serviços relacionados à transferência de valores, dados, fundos, pagamentos e similares, inclusive entre contas em geral.</t>
+  </si>
+  <si>
+    <t>15.17</t>
+  </si>
+  <si>
+    <t>Emissão, fornecimento, devolução, sustação, cancelamento e oposição de cheques quaisquer, avulso ou por talão.</t>
+  </si>
+  <si>
+    <t>15.18</t>
+  </si>
+  <si>
+    <t>Serviços relacionados a crédito imobiliário, avaliação e vistoria de imóvel ou obra, análise técnica e jurídica, emissão, reemissão, alteração, transferência e renegociação de contrato, emissão e reemissão do termo de quitação e demais serviços relacionados a crédito imobiliário.</t>
+  </si>
+  <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>Serviços de transporte de natureza municipal.</t>
+  </si>
+  <si>
+    <t>17.01</t>
+  </si>
+  <si>
+    <t>Assessoria ou consultoria de qualquer natureza, não contida em outros itens desta lista; análise, exame, pesquisa, coleta, compilação e fornecimento de dados e informações de qualquer natureza, inclusive cadastro e similares.</t>
+  </si>
+  <si>
+    <t>17.02</t>
+  </si>
+  <si>
+    <t>Datilografia, digitação, estenografia, expediente, secretaria em geral, resposta audível, redação, edição, interpretação, revisão, tradução, apoio e infra</t>
+  </si>
+  <si>
+    <t>estrutura administrativa e congêneres.</t>
+  </si>
+  <si>
+    <t>17.03</t>
+  </si>
+  <si>
+    <t>Planejamento, coordenação, programação ou organização técnica, financeira ou administrativa.</t>
+  </si>
+  <si>
+    <t>17.04</t>
+  </si>
+  <si>
+    <t>obra.</t>
+  </si>
+  <si>
+    <t>17.05</t>
+  </si>
+  <si>
+    <t>obra, mesmo em caráter temporário, inclusive de empregados ou trabalhadores, avulsos ou temporários, contratados pelo prestador de serviço.</t>
+  </si>
+  <si>
+    <t>17.06</t>
+  </si>
+  <si>
+    <t>Propaganda e publicidade, inclusive promoção de vendas, planejamento de campanhas ou sistemas de publicidade, elaboração de desenhos, textos e demais materiais publicitários.</t>
+  </si>
+  <si>
+    <t>17.07</t>
+  </si>
+  <si>
+    <t>17.08</t>
+  </si>
+  <si>
+    <t>Franquia (franchising).</t>
+  </si>
+  <si>
+    <t>17.09</t>
+  </si>
+  <si>
+    <t>Perícias, laudos, exames técnicos e análises técnicas.</t>
+  </si>
+  <si>
+    <t>17.10</t>
+  </si>
+  <si>
+    <t>Planejamento, organização e administração de feiras, exposições, congressos e congêneres.</t>
+  </si>
+  <si>
+    <t>17.11</t>
+  </si>
+  <si>
+    <t>Organização de festas e recepções; bufê (exceto o fornecimento de alimentação e bebidas, que fica sujeito ao ICMS).</t>
+  </si>
+  <si>
+    <t>17.12</t>
+  </si>
+  <si>
+    <t>Administração em geral, inclusive de bens e negócios de terceiros.</t>
+  </si>
+  <si>
+    <t>17.13</t>
+  </si>
+  <si>
+    <t>Leilão e congêneres.</t>
+  </si>
+  <si>
+    <t>17.14</t>
+  </si>
+  <si>
+    <t>17.15</t>
+  </si>
+  <si>
+    <t>Arbitragem de qualquer espécie, inclusive jurídica.</t>
+  </si>
+  <si>
+    <t>17.16</t>
+  </si>
+  <si>
+    <t>17.17</t>
+  </si>
+  <si>
+    <t>Análise de Organização e Métodos.</t>
+  </si>
+  <si>
+    <t>17.18</t>
+  </si>
+  <si>
+    <t>Atuária e cálculos técnicos de qualquer natureza.</t>
+  </si>
+  <si>
+    <t>17.19</t>
+  </si>
+  <si>
+    <t>Contabilidade, inclusive serviços técnicos e auxiliares.</t>
+  </si>
+  <si>
+    <t>17.20</t>
+  </si>
+  <si>
+    <t>Consultoria e assessoria econômica ou financeira.</t>
+  </si>
+  <si>
+    <t>17.21</t>
+  </si>
+  <si>
+    <t>17.22</t>
+  </si>
+  <si>
+    <t>Cobrança em geral.</t>
+  </si>
+  <si>
+    <t>17.23</t>
+  </si>
+  <si>
+    <t>Assessoria, análise, avaliação, atendimento, consulta, cadastro, seleção, gerenciamento de informações, administração de contas a receber ou a pagar e em geral, relacionados a operações de faturização (factoring).</t>
+  </si>
+  <si>
+    <t>17.24</t>
+  </si>
+  <si>
+    <t>Apresentação de palestras, conferências, seminários e congêneres.</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>Ginástica, dança, esportes, natação, artes marciais e demais atividades físicas.</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>Centros de emagrecimento, spa e congêneres.</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>Engenharia, agronomia, agrimensura, arquitetura, geologia, urbanismo, paisagismo e congêneres.</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>Execução, por administração, empreitada ou subempreitada, de obras de construção civil, hidráulica ou elétrica e de outras obras semelhantes, inclusive sondagem, perfuração de poços, escavação, drenagem e irrigação, terraplanagem, pavimentação, concretagem e a instalação e montagem de produtos, peças e equipamentos (exceto o fornecimento de mercadorias produzidas pelo prestador de serviços fora do local da prestação dos serviços, que fica sujeito ao ICMS).</t>
+  </si>
+  <si>
+    <t>7.03</t>
+  </si>
+  <si>
+    <t>Elaboração de planos diretores, estudos de viabilidade, estudos organizacionais e outros, relacionados com obras e serviços de engenharia; elaboração de anteprojetos, projetos básicos e projetos executivos para trabalhos de engenharia.</t>
+  </si>
+  <si>
+    <t>7.04</t>
+  </si>
+  <si>
+    <t>Demolição.</t>
+  </si>
+  <si>
+    <t>7.05</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>Colocação e instalação de tapetes, carpetes, assoalhos, cortinas, revestimentos de parede, vidros, divisórias, placas de gesso e congêneres, com material fornecido pelo tomador do serviço.</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>Recuperação, raspagem, polimento e lustração de pisos e congêneres.</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>7.09</t>
+  </si>
+  <si>
+    <t>Varrição, coleta, remoção, incineração, tratamento, reciclagem, separação e destinação final de lixo, rejeitos e outros resíduos quaisquer.</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>Limpeza, manutenção e conservação de vias e logradouros públicos, imóveis, chaminés, piscinas, parques, jardins e congêneres.</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>Decoração e jardinagem, inclusive corte e poda de árvores.</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>Controle e tratamento de efluentes de qualquer natureza e de agentes físicos, químicos e biológicos.</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>Florestamento, reflorestamento, semeadura, adubação e congêneres.</t>
+  </si>
+  <si>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>Escoramento, contenção de encostas e serviços congêneres.</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>Limpeza e dragagem de rios, portos, canais, baías, lagos, lagoas, represas, açudes e congêneres.</t>
+  </si>
+  <si>
+    <t>7.19</t>
+  </si>
+  <si>
+    <t>Acompanhamento e fiscalização da execução de obras de engenharia, arquitetura e urbanismo.</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>Aerofotogrametria (inclusive interpretação), cartografia, mapeamento, levantamentos topográficos, batimétricos, geográficos, geodésicos, geológicos, geofísicos e congêneres.</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>Pesquisa, perfuração, cimentação, mergulho, perfilagem, concretação, testemunhagem, pescaria, estimulação e outros serviços relacionados com a exploração e explotação de petróleo, gás natural e de outros recursos minerais.</t>
+  </si>
+  <si>
+    <t>7.22</t>
+  </si>
+  <si>
+    <t>Nucleação e bombardeamento de nuvens e congêneres.</t>
+  </si>
+  <si>
+    <t>8.01</t>
+  </si>
+  <si>
+    <t>escolar, fundamental, médio e superior.</t>
+  </si>
+  <si>
+    <t>8.02</t>
+  </si>
+  <si>
+    <t>Instrução, treinamento, orientação pedagógica e educacional, avaliação de conhecimentos de qualquer natureza.</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>Hospedagem de qualquer natureza em hotéis, apart</t>
+  </si>
+  <si>
+    <t>service condominiais, flat, aparthotéis, hotéis residência, residence</t>
+  </si>
+  <si>
+    <t>service, suite service, hotelaria marítima, motéis, pensões e congêneres; ocupação por temporada com fornecimento de serviço (o valor da alimentação e gorjeta, quando incluído no preço da diária, fica sujeito ao Imposto Sobre Serviços).</t>
+  </si>
+  <si>
+    <t>9.02</t>
+  </si>
+  <si>
+    <t>Agenciamento, organização, promoção, intermediação e execução de programas de turismo, passeios, viagens, excursões, hospedagens e congêneres.</t>
+  </si>
+  <si>
+    <t>9.03</t>
+  </si>
+  <si>
+    <t>Guias de turismo.</t>
+  </si>
+  <si>
+    <t>Prestação de serviço não referenciado em outro código do grupo Agenciamento, Corretagem e Intermediação, prestado por profissional autônomo</t>
+  </si>
+  <si>
+    <t>18.01</t>
+  </si>
+  <si>
+    <t>Serviços de regulação de sinistros vinculados a contratos de seguros; inspeção e avaliação de riscos para cobertura de contratos de seguros; prevenção e gerência de riscos seguráveis e congêneres.</t>
+  </si>
+  <si>
+    <t>19.01</t>
+  </si>
+  <si>
+    <t>Serviços de distribuição e venda de bilhetes e demais produtos de loteria, bingos, cartões, pules ou cupons de apostas, sorteios, prêmios, inclusive os decorrentes de títulos de capitalização e congêneres.</t>
+  </si>
+  <si>
+    <t>20.01</t>
+  </si>
+  <si>
+    <t>Serviços portuários, ferroportuários, utilização de porto, movimentação de passageiros, reboque de embarcações, rebocador escoteiro, atracação, desatracação, serviços de praticagem, capatazia, armazenagem de qualquer natureza, serviços acessórios, movimentação de mercadorias, serviços de apoio marítimo, de movimentação ao largo, serviços de armadores, estiva, conferência, logística e congêneres.</t>
+  </si>
+  <si>
+    <t>20.02</t>
+  </si>
+  <si>
+    <t>Serviços aeroportuários, utilização de aeroporto, movimentação de passageiros, armazenagem de qualquer natureza, capatazia, movimentação de aeronaves, serviços de apoio aeroportuários, serviços acessórios, movimentação de mercadorias, logística e congêneres.</t>
+  </si>
+  <si>
+    <t>20.03</t>
+  </si>
+  <si>
+    <t>Serviços de terminais rodoviários, ferroviários, metroviários, movimentação de passageiros, mercadorias, inclusive suas operações, logística e congêneres.</t>
+  </si>
+  <si>
+    <t>21.01</t>
+  </si>
+  <si>
+    <t>Serviços de registros públicos, cartorários e notariais.</t>
+  </si>
+  <si>
+    <t>22.01</t>
+  </si>
+  <si>
+    <t>Serviços de exploração de rodovia mediante cobrança de preço ou pedágio dos usuários, envolvendo execução de serviços de conservação, manutenção, melhoramentos para adequação de capacidade e segurança de trânsito, operação, monitoração, assistência aos usuários e outros serviços definidos em contratos, atos de concessão ou de permissão ou em normas oficiais.</t>
+  </si>
+  <si>
+    <t>23.01</t>
+  </si>
+  <si>
+    <t>Serviços de programação e comunicação visual, desenho industrial e congêneres.</t>
+  </si>
+  <si>
+    <t>24.01</t>
+  </si>
+  <si>
+    <t>Serviços de chaveiros, confecção de carimbos, placas, sinalização visual, banners, adesivos e congêneres.</t>
+  </si>
+  <si>
+    <t>25.01</t>
+  </si>
+  <si>
+    <t>Funerais, inclusive fornecimento de caixão, urna ou esquifes; aluguel de capela; transporte do corpo cadavérico; fornecimento de flores, coroas e outros paramentos; desembaraço de certidão de óbito; fornecimento de véu, essa e outros adornos; embalsamento, embelezamento, conservação ou restauração de cadáveres.</t>
+  </si>
+  <si>
+    <t>25.02</t>
+  </si>
+  <si>
+    <t>Cremação de corpos e partes de corpos cadavéricos.</t>
+  </si>
+  <si>
+    <t>25.03</t>
+  </si>
+  <si>
+    <t>Planos ou convênio funerários.</t>
+  </si>
+  <si>
+    <t>25.04</t>
+  </si>
+  <si>
+    <t>Manutenção e conservação de jazigos e cemitérios.</t>
+  </si>
+  <si>
+    <t>26.01</t>
+  </si>
+  <si>
+    <t>Serviços de coleta, remessa ou entrega de correspondências, documentos, objetos, bens ou valores, inclusive pelos correios e suas agências franqueadas; courrier e congêneres.</t>
+  </si>
+  <si>
+    <t>27.01</t>
+  </si>
+  <si>
+    <t>Serviços de assistência social.</t>
+  </si>
+  <si>
+    <t>28.01</t>
+  </si>
+  <si>
+    <t>Serviços de avaliação de bens e serviços de qualquer natureza.</t>
+  </si>
+  <si>
+    <t>29.01</t>
+  </si>
+  <si>
+    <t>Serviços de biblioteconomia.</t>
+  </si>
+  <si>
+    <t>30.01</t>
+  </si>
+  <si>
+    <t>Serviços de biologia, biotecnologia e química.</t>
+  </si>
+  <si>
+    <t>31.01</t>
+  </si>
+  <si>
+    <t>Serviços técnicos em edificações, eletrônica, eletrotécnica, mecânica, telecomunicações e congêneres.</t>
+  </si>
+  <si>
+    <t>32.01</t>
+  </si>
+  <si>
+    <t>Serviços de desenhos técnicos.</t>
+  </si>
+  <si>
+    <t>33.01</t>
+  </si>
+  <si>
+    <t>Serviços de desembaraço aduaneiro, comissários, despachantes e congêneres.</t>
+  </si>
+  <si>
+    <t>34.01</t>
+  </si>
+  <si>
+    <t>Serviços de investigações particulares, detetives e congêneres.</t>
+  </si>
+  <si>
+    <t>35.01</t>
+  </si>
+  <si>
+    <t>Serviços de reportagem, assessoria de imprensa, jornalismo e relações públicas.</t>
+  </si>
+  <si>
+    <t>36.01</t>
+  </si>
+  <si>
+    <t>Serviços de meteorologia.</t>
+  </si>
+  <si>
+    <t>37.01</t>
+  </si>
+  <si>
+    <t>Serviços de artistas, atletas, modelos e manequins.</t>
+  </si>
+  <si>
+    <t>38.01</t>
+  </si>
+  <si>
+    <t>Serviços de museologia.</t>
+  </si>
+  <si>
+    <t>39.01</t>
+  </si>
+  <si>
+    <t>40.01</t>
+  </si>
+  <si>
+    <t>Obras de arte sob encomenda.</t>
+  </si>
+  <si>
+    <t>SAÚDE PETROBRAS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -3073,29 +5751,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="42.7109375" style="49" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="66.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="29.5703125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7265625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="42.7265625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.54296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="29.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1">
@@ -7053,14 +9731,5162 @@
       <c r="R97" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H97" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H97"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E382"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1872</v>
+      </c>
+      <c r="B2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1880</v>
+      </c>
+      <c r="B3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1899</v>
+      </c>
+      <c r="B4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1902</v>
+      </c>
+      <c r="B5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1903</v>
+      </c>
+      <c r="B6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2038</v>
+      </c>
+      <c r="B8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2054</v>
+      </c>
+      <c r="B9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2062</v>
+      </c>
+      <c r="B10" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2097</v>
+      </c>
+      <c r="B11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>2135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>2143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>2151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2224</v>
+      </c>
+      <c r="B20" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2232</v>
+      </c>
+      <c r="B21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C21" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2321</v>
+      </c>
+      <c r="B22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2348</v>
+      </c>
+      <c r="B24" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2402</v>
+      </c>
+      <c r="B26" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2410</v>
+      </c>
+      <c r="B27" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2429</v>
+      </c>
+      <c r="B28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2445</v>
+      </c>
+      <c r="B29" t="s">
+        <v>760</v>
+      </c>
+      <c r="C29" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2453</v>
+      </c>
+      <c r="B30" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2461</v>
+      </c>
+      <c r="B31" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2488</v>
+      </c>
+      <c r="B32" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2496</v>
+      </c>
+      <c r="B33" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2500</v>
+      </c>
+      <c r="B34" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2526</v>
+      </c>
+      <c r="B35" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2534</v>
+      </c>
+      <c r="B36" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2542</v>
+      </c>
+      <c r="B37" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2658</v>
+      </c>
+      <c r="B38" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2666</v>
+      </c>
+      <c r="B39" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2682</v>
+      </c>
+      <c r="B40" t="s">
+        <v>772</v>
+      </c>
+      <c r="C40" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2690</v>
+      </c>
+      <c r="B41" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2798</v>
+      </c>
+      <c r="B42" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2836</v>
+      </c>
+      <c r="B43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2879</v>
+      </c>
+      <c r="B44" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2917</v>
+      </c>
+      <c r="B45" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2918</v>
+      </c>
+      <c r="B46" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2933</v>
+      </c>
+      <c r="B47" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>3085</v>
+      </c>
+      <c r="B48" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>3093</v>
+      </c>
+      <c r="B49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>3115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>3123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>3131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>3158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>786</v>
+      </c>
+      <c r="C53" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>3166</v>
+      </c>
+      <c r="B54" t="s">
+        <v>788</v>
+      </c>
+      <c r="C54" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>3174</v>
+      </c>
+      <c r="B55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>3204</v>
+      </c>
+      <c r="B56" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>3212</v>
+      </c>
+      <c r="B57" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>3220</v>
+      </c>
+      <c r="B58" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>3239</v>
+      </c>
+      <c r="B59" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>3379</v>
+      </c>
+      <c r="B60" t="s">
+        <v>795</v>
+      </c>
+      <c r="C60" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>3387</v>
+      </c>
+      <c r="B61" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>3395</v>
+      </c>
+      <c r="B62" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>3425</v>
+      </c>
+      <c r="B63" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>3433</v>
+      </c>
+      <c r="B64" t="s">
+        <v>800</v>
+      </c>
+      <c r="C64" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>3450</v>
+      </c>
+      <c r="B65" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>3468</v>
+      </c>
+      <c r="B66" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>3476</v>
+      </c>
+      <c r="B67" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>3611</v>
+      </c>
+      <c r="B68" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>3620</v>
+      </c>
+      <c r="B69" t="s">
+        <v>806</v>
+      </c>
+      <c r="C69" t="s">
+        <v>807</v>
+      </c>
+      <c r="D69" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>3638</v>
+      </c>
+      <c r="B70" t="s">
+        <v>809</v>
+      </c>
+      <c r="C70" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>3654</v>
+      </c>
+      <c r="B71" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>3670</v>
+      </c>
+      <c r="B72" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>3700</v>
+      </c>
+      <c r="B73" t="s">
+        <v>813</v>
+      </c>
+      <c r="C73" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>3719</v>
+      </c>
+      <c r="B74" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>3743</v>
+      </c>
+      <c r="B75" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>3751</v>
+      </c>
+      <c r="B76" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>3877</v>
+      </c>
+      <c r="B77" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>3878</v>
+      </c>
+      <c r="B78" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>3956</v>
+      </c>
+      <c r="B79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>3980</v>
+      </c>
+      <c r="B80" t="s">
+        <v>820</v>
+      </c>
+      <c r="C80" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>4030</v>
+      </c>
+      <c r="B81" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>4073</v>
+      </c>
+      <c r="B82" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>4111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>824</v>
+      </c>
+      <c r="C83" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>4138</v>
+      </c>
+      <c r="B84" t="s">
+        <v>825</v>
+      </c>
+      <c r="C84" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>4146</v>
+      </c>
+      <c r="B85" t="s">
+        <v>827</v>
+      </c>
+      <c r="C85" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>4154</v>
+      </c>
+      <c r="B86" t="s">
+        <v>827</v>
+      </c>
+      <c r="C86" t="s">
+        <v>829</v>
+      </c>
+      <c r="D86" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>4170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>4189</v>
+      </c>
+      <c r="B88" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>4197</v>
+      </c>
+      <c r="B89" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>4219</v>
+      </c>
+      <c r="B90" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>4235</v>
+      </c>
+      <c r="B91" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>4251</v>
+      </c>
+      <c r="B92" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>4260</v>
+      </c>
+      <c r="B93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>4278</v>
+      </c>
+      <c r="B94" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>4316</v>
+      </c>
+      <c r="B95" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>4340</v>
+      </c>
+      <c r="B96" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>4359</v>
+      </c>
+      <c r="B97" t="s">
+        <v>840</v>
+      </c>
+      <c r="C97" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>4375</v>
+      </c>
+      <c r="B98" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>4383</v>
+      </c>
+      <c r="B99" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>4391</v>
+      </c>
+      <c r="B100" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>4421</v>
+      </c>
+      <c r="B101" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>4430</v>
+      </c>
+      <c r="B102" t="s">
+        <v>845</v>
+      </c>
+      <c r="C102" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>4472</v>
+      </c>
+      <c r="B103" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>4499</v>
+      </c>
+      <c r="B104" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>4502</v>
+      </c>
+      <c r="B105" t="s">
+        <v>848</v>
+      </c>
+      <c r="C105" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>4510</v>
+      </c>
+      <c r="B106" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>4545</v>
+      </c>
+      <c r="B107" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>4553</v>
+      </c>
+      <c r="B108" t="s">
+        <v>851</v>
+      </c>
+      <c r="C108" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>4588</v>
+      </c>
+      <c r="B109" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>4596</v>
+      </c>
+      <c r="B110" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>4626</v>
+      </c>
+      <c r="B111" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>4634</v>
+      </c>
+      <c r="B112" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>4650</v>
+      </c>
+      <c r="B113" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>4677</v>
+      </c>
+      <c r="B114" t="s">
+        <v>857</v>
+      </c>
+      <c r="C114" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>4693</v>
+      </c>
+      <c r="B115" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>4723</v>
+      </c>
+      <c r="B116" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>4731</v>
+      </c>
+      <c r="B117" t="s">
+        <v>860</v>
+      </c>
+      <c r="C117" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>4774</v>
+      </c>
+      <c r="B118" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>4871</v>
+      </c>
+      <c r="B119" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>4901</v>
+      </c>
+      <c r="B120" t="s">
+        <v>863</v>
+      </c>
+      <c r="C120" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>5037</v>
+      </c>
+      <c r="B121" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>5053</v>
+      </c>
+      <c r="B122" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>5096</v>
+      </c>
+      <c r="B123" t="s">
+        <v>866</v>
+      </c>
+      <c r="C123" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>5100</v>
+      </c>
+      <c r="B124" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>5118</v>
+      </c>
+      <c r="B125" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>5134</v>
+      </c>
+      <c r="B126" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>5142</v>
+      </c>
+      <c r="B127" t="s">
+        <v>870</v>
+      </c>
+      <c r="C127" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>5150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>5177</v>
+      </c>
+      <c r="B129" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>5185</v>
+      </c>
+      <c r="B130" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>5193</v>
+      </c>
+      <c r="B131" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>5223</v>
+      </c>
+      <c r="B132" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>5231</v>
+      </c>
+      <c r="B133" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>5266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>5274</v>
+      </c>
+      <c r="B135" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>5312</v>
+      </c>
+      <c r="B136" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>5380</v>
+      </c>
+      <c r="B137" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>5398</v>
+      </c>
+      <c r="B138" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>5410</v>
+      </c>
+      <c r="B139" t="s">
+        <v>882</v>
+      </c>
+      <c r="C139" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>5428</v>
+      </c>
+      <c r="B140" t="s">
+        <v>883</v>
+      </c>
+      <c r="C140" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>5436</v>
+      </c>
+      <c r="B141" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>5460</v>
+      </c>
+      <c r="B142" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>5479</v>
+      </c>
+      <c r="B143" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>5495</v>
+      </c>
+      <c r="B144" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>5517</v>
+      </c>
+      <c r="B145" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>5533</v>
+      </c>
+      <c r="B146" t="s">
+        <v>890</v>
+      </c>
+      <c r="C146" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>5541</v>
+      </c>
+      <c r="B147" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>5576</v>
+      </c>
+      <c r="B148" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>5584</v>
+      </c>
+      <c r="B149" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>5657</v>
+      </c>
+      <c r="B150" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>5665</v>
+      </c>
+      <c r="B151" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>5673</v>
+      </c>
+      <c r="B152" t="s">
+        <v>897</v>
+      </c>
+      <c r="C152" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>5681</v>
+      </c>
+      <c r="B153" t="s">
+        <v>899</v>
+      </c>
+      <c r="C153" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>5690</v>
+      </c>
+      <c r="B154" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>5711</v>
+      </c>
+      <c r="B155" t="s">
+        <v>902</v>
+      </c>
+      <c r="C155" t="s">
+        <v>903</v>
+      </c>
+      <c r="D155" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>5720</v>
+      </c>
+      <c r="B156" t="s">
+        <v>905</v>
+      </c>
+      <c r="C156" t="s">
+        <v>903</v>
+      </c>
+      <c r="D156" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>5738</v>
+      </c>
+      <c r="B157" t="s">
+        <v>907</v>
+      </c>
+      <c r="C157" t="s">
+        <v>908</v>
+      </c>
+      <c r="D157" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>5754</v>
+      </c>
+      <c r="B158" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>5762</v>
+      </c>
+      <c r="B159" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>5771</v>
+      </c>
+      <c r="B160" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>5800</v>
+      </c>
+      <c r="B161" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>5820</v>
+      </c>
+      <c r="B162" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>5836</v>
+      </c>
+      <c r="B163" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>5837</v>
+      </c>
+      <c r="B164" t="s">
+        <v>916</v>
+      </c>
+      <c r="C164" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>5851</v>
+      </c>
+      <c r="B165" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>5878</v>
+      </c>
+      <c r="B166" t="s">
+        <v>919</v>
+      </c>
+      <c r="C166" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>5870</v>
+      </c>
+      <c r="B167" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>5871</v>
+      </c>
+      <c r="B168" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>5872</v>
+      </c>
+      <c r="B169" t="s">
+        <v>923</v>
+      </c>
+      <c r="C169" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>5873</v>
+      </c>
+      <c r="B170" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>5874</v>
+      </c>
+      <c r="B171" t="s">
+        <v>926</v>
+      </c>
+      <c r="C171" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>5875</v>
+      </c>
+      <c r="B172" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>5876</v>
+      </c>
+      <c r="B173" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>5877</v>
+      </c>
+      <c r="B174" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>5879</v>
+      </c>
+      <c r="B175" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>5881</v>
+      </c>
+      <c r="B176" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>1015</v>
+      </c>
+      <c r="B177" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>1023</v>
+      </c>
+      <c r="B178" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>1031</v>
+      </c>
+      <c r="B179" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>1058</v>
+      </c>
+      <c r="B180" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>1090</v>
+      </c>
+      <c r="B181" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>1104</v>
+      </c>
+      <c r="B182" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>1112</v>
+      </c>
+      <c r="B183" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>1139</v>
+      </c>
+      <c r="B184" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>1210</v>
+      </c>
+      <c r="B185" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>1228</v>
+      </c>
+      <c r="B186" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>1236</v>
+      </c>
+      <c r="B187" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>1244</v>
+      </c>
+      <c r="B188" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>1325</v>
+      </c>
+      <c r="B189" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>1384</v>
+      </c>
+      <c r="B190" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>1406</v>
+      </c>
+      <c r="B191" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>1422</v>
+      </c>
+      <c r="B192" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>1430</v>
+      </c>
+      <c r="B193" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>1449</v>
+      </c>
+      <c r="B194" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>1465</v>
+      </c>
+      <c r="B195" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>1473</v>
+      </c>
+      <c r="B196" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>1481</v>
+      </c>
+      <c r="B197" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>1503</v>
+      </c>
+      <c r="B198" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>1520</v>
+      </c>
+      <c r="B199" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>1538</v>
+      </c>
+      <c r="B200" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>1546</v>
+      </c>
+      <c r="B201" t="s">
+        <v>957</v>
+      </c>
+      <c r="C201" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>1589</v>
+      </c>
+      <c r="B202" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>1600</v>
+      </c>
+      <c r="B203" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>1627</v>
+      </c>
+      <c r="B204" t="s">
+        <v>960</v>
+      </c>
+      <c r="C204" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>1694</v>
+      </c>
+      <c r="B205" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>1724</v>
+      </c>
+      <c r="B206" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>1740</v>
+      </c>
+      <c r="B207" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>1805</v>
+      </c>
+      <c r="B208" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>1821</v>
+      </c>
+      <c r="B209" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>1848</v>
+      </c>
+      <c r="B210" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>1856</v>
+      </c>
+      <c r="B211" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>1864</v>
+      </c>
+      <c r="B212" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>5885</v>
+      </c>
+      <c r="B213" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>5886</v>
+      </c>
+      <c r="B214" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>5887</v>
+      </c>
+      <c r="B215" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>5888</v>
+      </c>
+      <c r="B216" t="s">
+        <v>972</v>
+      </c>
+      <c r="C216" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>5889</v>
+      </c>
+      <c r="B217" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>5890</v>
+      </c>
+      <c r="B218" t="s">
+        <v>975</v>
+      </c>
+      <c r="C218" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>5891</v>
+      </c>
+      <c r="B219" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>5892</v>
+      </c>
+      <c r="B220" t="s">
+        <v>978</v>
+      </c>
+      <c r="C220" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>5893</v>
+      </c>
+      <c r="B221" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>5894</v>
+      </c>
+      <c r="B222" t="s">
+        <v>980</v>
+      </c>
+      <c r="C222" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>5916</v>
+      </c>
+      <c r="B223" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>5991</v>
+      </c>
+      <c r="B224" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>6009</v>
+      </c>
+      <c r="B225" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>6017</v>
+      </c>
+      <c r="B226" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>6041</v>
+      </c>
+      <c r="B227" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>6050</v>
+      </c>
+      <c r="B228" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>6076</v>
+      </c>
+      <c r="B229" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>6084</v>
+      </c>
+      <c r="B230" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>6092</v>
+      </c>
+      <c r="B231" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>6114</v>
+      </c>
+      <c r="B232" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>6122</v>
+      </c>
+      <c r="B233" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>6130</v>
+      </c>
+      <c r="B234" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>6149</v>
+      </c>
+      <c r="B235" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>6157</v>
+      </c>
+      <c r="B236" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>6165</v>
+      </c>
+      <c r="B237" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>6173</v>
+      </c>
+      <c r="B238" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>6181</v>
+      </c>
+      <c r="B239" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>6190</v>
+      </c>
+      <c r="B240" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>6220</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>7536</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>7552</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>7560</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>7579</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>7595</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>7609</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>7617</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>7633</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>7641</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>7676</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>7684</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>7692</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>7765</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>7773</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>7790</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>7803</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>7811</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>7838</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>7846</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>7854</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>7870</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>7889</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>7897</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>7919</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>7927</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>7951</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>7960</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>7978</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>8036</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>8044</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>8045</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>8052</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>8079</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>8087</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>8095</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>8117</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>8125</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>8133</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>8168</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>8176</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>8192</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>8206</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>8214</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>8257</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>8273</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>8274</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>8281</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>8290</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>8230</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>8311</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>8320</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>8338</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>8354</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>8362</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>8370</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>8397</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>8400</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>8419</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>8478</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>8486</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>8494</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>8516</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>8532</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>8567</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>8575</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>8648</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>8656</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>8664</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>8672</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>8770</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>8842</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>8850</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>8885</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>8893</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>8899</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>6238</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>6262</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>6270</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>6297</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>6319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>6335</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>6343</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>6351</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>6386</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>6394</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>6432</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>6475</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>6491</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>6513</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>6521</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>6530</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>6556</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>6564</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>6572</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>6599</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>6602</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>6610</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>6637</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>6645</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>6653</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>6777</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>6793</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>6807</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>6815</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>6831</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>6840</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>6858</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>6890</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>6912</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>6920</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>6939</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353">
+        <v>6955</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354">
+        <v>6963</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355">
+        <v>6971</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356">
+        <v>7005</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357">
+        <v>7013</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358">
+        <v>7056</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359">
+        <v>7099</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360">
+        <v>7110</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361">
+        <v>7129</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362">
+        <v>7137</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363">
+        <v>7153</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364">
+        <v>7161</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365">
+        <v>7170</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366">
+        <v>7196</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367">
+        <v>7218</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368">
+        <v>7234</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>7285</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>7315</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>7323</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>7331</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>7366</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>7390</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>7412</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>7439</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>7447</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>7455</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>7471</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>7498</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>7510</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>7528</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E200"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>827</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B27" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B28" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B30" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>883</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B47" t="s">
+        <v>890</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B101" t="s">
+        <v>919</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B106" t="s">
+        <v>926</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B132" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B134" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B139" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B149" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B152" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B157" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B167" t="s">
+        <v>897</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>25</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7069,22 +14895,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" style="10" customWidth="1"/>
-    <col min="9" max="10" width="45.28515625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.26953125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.26953125" style="10" customWidth="1"/>
+    <col min="9" max="10" width="45.26953125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" customWidth="1"/>
+    <col min="18" max="18" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1">
@@ -8416,29 +16242,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="32.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="3" customWidth="1"/>
+    <col min="8" max="10" width="32.26953125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" style="32" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.85546875" customWidth="1"/>
+    <col min="14" max="14" width="4.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.81640625" customWidth="1"/>
     <col min="17" max="17" width="58" customWidth="1"/>
-    <col min="18" max="18" width="47.7109375" customWidth="1"/>
+    <col min="18" max="18" width="47.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1">
@@ -8867,29 +16693,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.54296875" style="3" customWidth="1"/>
     <col min="8" max="8" width="51" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.42578125" customWidth="1"/>
-    <col min="16" max="16" width="44.28515625" customWidth="1"/>
-    <col min="17" max="17" width="44.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.453125" customWidth="1"/>
+    <col min="16" max="16" width="44.26953125" customWidth="1"/>
+    <col min="17" max="17" width="44.1796875" customWidth="1"/>
     <col min="18" max="18" width="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9418,16 +17244,680 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="46.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>169</v>
+      </c>
+      <c r="B33" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="34.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="56.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B785CCF559E8E947B23612CD85DC32AC" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="d3123aa548d2e10ab5155693547c7771">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="898d33ac-d7b2-426c-975b-74ddadea6a05" xmlns:ns3="c8a3c734-6769-448e-aba7-561ff76b1227" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1018ec52d867cfa634186802f9e36111" ns2:_="" ns3:_="">
     <xsd:import namespace="898d33ac-d7b2-426c-975b-74ddadea6a05"/>
@@ -9656,6 +18146,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9668,13 +18167,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072DCDC3-D3CE-49B3-A063-3E5EED780BDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE6D7ADD-00D0-449D-9DDA-DC1E4807CE03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="898d33ac-d7b2-426c-975b-74ddadea6a05"/>
+    <ds:schemaRef ds:uri="c8a3c734-6769-448e-aba7-561ff76b1227"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE6D7ADD-00D0-449D-9DDA-DC1E4807CE03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072DCDC3-D3CE-49B3-A063-3E5EED780BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE5B88C-80A7-4EEA-8640-AB2A89AA83E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE5B88C-80A7-4EEA-8640-AB2A89AA83E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="898d33ac-d7b2-426c-975b-74ddadea6a05"/>
+    <ds:schemaRef ds:uri="c8a3c734-6769-448e-aba7-561ff76b1227"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Padrao/Leiautes/Prestadores/Prestador/Leiaute Importação prestadores - Final  - Modelo.xlsx
+++ b/Padrao/Leiautes/Prestadores/Prestador/Leiaute Importação prestadores - Final  - Modelo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Prestadores" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Domínio - Código do serviço" sheetId="14" r:id="rId14"/>
     <sheet name="Domínio - Filial Padrão" sheetId="16" r:id="rId15"/>
     <sheet name="Domínio - Filial Custo" sheetId="15" r:id="rId16"/>
+    <sheet name="Domínio - Tipo de Logradouro" sheetId="17" r:id="rId17"/>
+    <sheet name="Domínio - Motivo de Canc. End." sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prestadores!$A$1:$H$97</definedName>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1715">
   <si>
     <t>Campo</t>
   </si>
@@ -4940,6 +4942,570 @@
   </si>
   <si>
     <t>SAÚDE PETROBRAS</t>
+  </si>
+  <si>
+    <t>Acesso</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Avenida</t>
+  </si>
+  <si>
+    <t>Beco</t>
+  </si>
+  <si>
+    <t>Bloco</t>
+  </si>
+  <si>
+    <t>Conjunto</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Fazenda</t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>Lagoa</t>
+  </si>
+  <si>
+    <t>Loteamento</t>
+  </si>
+  <si>
+    <t>Praça</t>
+  </si>
+  <si>
+    <t>Praia</t>
+  </si>
+  <si>
+    <t>Parque</t>
+  </si>
+  <si>
+    <t>Quadra</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Rodovia</t>
+  </si>
+  <si>
+    <t>Sítio</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Trevo</t>
+  </si>
+  <si>
+    <t>Travessa</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>Viaduto</t>
+  </si>
+  <si>
+    <t>Viela</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>Esplanada</t>
+  </si>
+  <si>
+    <t>Chácara</t>
+  </si>
+  <si>
+    <t>Condomínio</t>
+  </si>
+  <si>
+    <t>Estância</t>
+  </si>
+  <si>
+    <t>Complexo Viário</t>
+  </si>
+  <si>
+    <t>Rotatória</t>
+  </si>
+  <si>
+    <t>Via de Acesso</t>
+  </si>
+  <si>
+    <t>Via Expressa</t>
+  </si>
+  <si>
+    <t>Adro</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Atalho</t>
+  </si>
+  <si>
+    <t>Balneário</t>
+  </si>
+  <si>
+    <t>Belvedere</t>
+  </si>
+  <si>
+    <t>Bosque</t>
+  </si>
+  <si>
+    <t>Boulevard</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>Cais</t>
+  </si>
+  <si>
+    <t>Caminho</t>
+  </si>
+  <si>
+    <t>Chapadão</t>
+  </si>
+  <si>
+    <t>Colônia</t>
+  </si>
+  <si>
+    <t>Corredor</t>
+  </si>
+  <si>
+    <t>Córrego</t>
+  </si>
+  <si>
+    <t>Desvio</t>
+  </si>
+  <si>
+    <t>Escada</t>
+  </si>
+  <si>
+    <t>Estação</t>
+  </si>
+  <si>
+    <t>Estádio</t>
+  </si>
+  <si>
+    <t>Favela</t>
+  </si>
+  <si>
+    <t>Ferrovia</t>
+  </si>
+  <si>
+    <t>Fonte</t>
+  </si>
+  <si>
+    <t>Feira</t>
+  </si>
+  <si>
+    <t>Forte</t>
+  </si>
+  <si>
+    <t>Galeria</t>
+  </si>
+  <si>
+    <t>Granja</t>
+  </si>
+  <si>
+    <t>Ilha</t>
+  </si>
+  <si>
+    <t>Jardim</t>
+  </si>
+  <si>
+    <t>Ladeira</t>
+  </si>
+  <si>
+    <t>Morro</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
+    <t>Paralela</t>
+  </si>
+  <si>
+    <t>Passeio</t>
+  </si>
+  <si>
+    <t>Pátio</t>
+  </si>
+  <si>
+    <t>Parada</t>
+  </si>
+  <si>
+    <t>Prolongamento</t>
+  </si>
+  <si>
+    <t>Passarela</t>
+  </si>
+  <si>
+    <t>Passagem</t>
+  </si>
+  <si>
+    <t>Ponte</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Recanto</t>
+  </si>
+  <si>
+    <t>Retiro</t>
+  </si>
+  <si>
+    <t>Reta</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>Servidão</t>
+  </si>
+  <si>
+    <t>Subida</t>
+  </si>
+  <si>
+    <t>Trincheira</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Vila</t>
+  </si>
+  <si>
+    <t>Zigue</t>
+  </si>
+  <si>
+    <t>zague</t>
+  </si>
+  <si>
+    <t>Trecho</t>
+  </si>
+  <si>
+    <t>Vereda</t>
+  </si>
+  <si>
+    <t>Artéria</t>
+  </si>
+  <si>
+    <t>Elevada</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Balão</t>
+  </si>
+  <si>
+    <t>Paradouro</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Jardinete</t>
+  </si>
+  <si>
+    <t>Quintas</t>
+  </si>
+  <si>
+    <t>Rotula</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Descida</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Rampa</t>
+  </si>
+  <si>
+    <t>Ponta</t>
+  </si>
+  <si>
+    <t>Via de pedestre</t>
+  </si>
+  <si>
+    <t>Habitacional</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Canal</t>
+  </si>
+  <si>
+    <t>Buraco</t>
+  </si>
+  <si>
+    <t>Módulo</t>
+  </si>
+  <si>
+    <t>Lago</t>
+  </si>
+  <si>
+    <t>Núcleo</t>
+  </si>
+  <si>
+    <t>Aeroporto</t>
+  </si>
+  <si>
+    <t>Passagem Subterrânea</t>
+  </si>
+  <si>
+    <t>Praça de Esportes</t>
+  </si>
+  <si>
+    <t>Via Elevada</t>
+  </si>
+  <si>
+    <t>1ª Travessa</t>
+  </si>
+  <si>
+    <t>2ª Travessa</t>
+  </si>
+  <si>
+    <t>3ª Travessa</t>
+  </si>
+  <si>
+    <t>4ª Travessa</t>
+  </si>
+  <si>
+    <t>5ª Travessa</t>
+  </si>
+  <si>
+    <t>6ª Travessa</t>
+  </si>
+  <si>
+    <t>7ª Travessa</t>
+  </si>
+  <si>
+    <t>8ª Travessa</t>
+  </si>
+  <si>
+    <t>9ª Travessa</t>
+  </si>
+  <si>
+    <t>10ª Travessa</t>
+  </si>
+  <si>
+    <t>11ª Travessa</t>
+  </si>
+  <si>
+    <t>12ª Travessa</t>
+  </si>
+  <si>
+    <t>13ª Travessa</t>
+  </si>
+  <si>
+    <t>14ª Travessa</t>
+  </si>
+  <si>
+    <t>15ª Travessa</t>
+  </si>
+  <si>
+    <t>16ª Travessa</t>
+  </si>
+  <si>
+    <t>1º Alto</t>
+  </si>
+  <si>
+    <t>2º Alto</t>
+  </si>
+  <si>
+    <t>3º Alto</t>
+  </si>
+  <si>
+    <t>4º Alto</t>
+  </si>
+  <si>
+    <t>5º Alto</t>
+  </si>
+  <si>
+    <t>1º Beco</t>
+  </si>
+  <si>
+    <t>2º Beco</t>
+  </si>
+  <si>
+    <t>3º Beco</t>
+  </si>
+  <si>
+    <t>4º Beco</t>
+  </si>
+  <si>
+    <t>5º Beco</t>
+  </si>
+  <si>
+    <t>1ª Paralela</t>
+  </si>
+  <si>
+    <t>2ª Paralela</t>
+  </si>
+  <si>
+    <t>3ª Paralela</t>
+  </si>
+  <si>
+    <t>4ª Paralela</t>
+  </si>
+  <si>
+    <t>5ª Paralela</t>
+  </si>
+  <si>
+    <t>1ª Subida</t>
+  </si>
+  <si>
+    <t>2ª Subida</t>
+  </si>
+  <si>
+    <t>3ª Subida</t>
+  </si>
+  <si>
+    <t>4ª Subida</t>
+  </si>
+  <si>
+    <t>5ª Subida</t>
+  </si>
+  <si>
+    <t>6ª Subida</t>
+  </si>
+  <si>
+    <t>1ª Vila</t>
+  </si>
+  <si>
+    <t>2ª Vila</t>
+  </si>
+  <si>
+    <t>3ª Vila</t>
+  </si>
+  <si>
+    <t>4ª Vila</t>
+  </si>
+  <si>
+    <t>5ª Vila</t>
+  </si>
+  <si>
+    <t>1º Parque</t>
+  </si>
+  <si>
+    <t>2º Parque</t>
+  </si>
+  <si>
+    <t>3º Parque</t>
+  </si>
+  <si>
+    <t>1ª Rua</t>
+  </si>
+  <si>
+    <t>2ª Rua</t>
+  </si>
+  <si>
+    <t>3ª Rua</t>
+  </si>
+  <si>
+    <t>4ª Rua</t>
+  </si>
+  <si>
+    <t>5ª Rua</t>
+  </si>
+  <si>
+    <t>6ª Rua</t>
+  </si>
+  <si>
+    <t>7ª Rua</t>
+  </si>
+  <si>
+    <t>8ª Rua</t>
+  </si>
+  <si>
+    <t>9ª Rua</t>
+  </si>
+  <si>
+    <t>10ª Rua</t>
+  </si>
+  <si>
+    <t>11ª Rua</t>
+  </si>
+  <si>
+    <t>12ª Rua</t>
+  </si>
+  <si>
+    <t>Estacionamento</t>
+  </si>
+  <si>
+    <t>Vala</t>
+  </si>
+  <si>
+    <t>Rua de Pedestre</t>
+  </si>
+  <si>
+    <t>Túnel</t>
+  </si>
+  <si>
+    <t>Variante</t>
+  </si>
+  <si>
+    <t>Rodo Anel</t>
+  </si>
+  <si>
+    <t>Travessa Particular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calçada </t>
+  </si>
+  <si>
+    <t>Entrada Particular</t>
+  </si>
+  <si>
+    <t>Acampamento</t>
+  </si>
+  <si>
+    <t>Estrada Municipal</t>
+  </si>
+  <si>
+    <t>Avenida Contorno</t>
+  </si>
+  <si>
+    <t>Entre</t>
+  </si>
+  <si>
+    <t>quadra</t>
+  </si>
+  <si>
+    <t>Rua de Ligação</t>
+  </si>
+  <si>
+    <t>Área Especial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUDANÇA DE ENDEREÇO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Motivo</t>
   </si>
 </sst>
 </file>
@@ -14857,7 +15423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -14882,6 +15448,1554 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>474</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>481</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>485</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>498</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>503</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>506</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>572</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>646</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>96</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>104</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>108</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>452</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>453</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>465</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>468</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>469</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>470</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>471</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>472</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>473</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>475</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>476</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>477</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>478</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>479</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>480</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>482</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>483</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>484</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>486</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>487</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>495</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>496</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>497</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>499</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>500</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>501</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>502</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>504</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>505</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>507</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>508</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>509</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>510</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>511</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>512</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>513</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>514</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>515</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>516</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>517</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>518</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>519</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>520</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>521</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>522</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>523</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>524</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>525</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>526</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>527</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>528</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>529</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>530</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>531</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>532</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>533</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>534</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>535</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>536</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>537</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>538</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>539</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>540</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>541</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>542</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>543</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>544</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>545</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>546</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>547</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>548</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>549</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>550</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>551</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>552</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>553</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>554</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>555</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>556</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>557</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>558</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>559</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>560</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>561</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>562</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>563</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>564</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>565</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>566</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>567</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>568</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>569</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>570</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>571</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>573</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>645</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>650</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>651</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>652</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>653</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>654</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -18147,15 +20261,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="898d33ac-d7b2-426c-975b-74ddadea6a05">
@@ -18164,6 +20269,15 @@
     <TaxCatchAll xmlns="c8a3c734-6769-448e-aba7-561ff76b1227" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18186,14 +20300,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072DCDC3-D3CE-49B3-A063-3E5EED780BDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE5B88C-80A7-4EEA-8640-AB2A89AA83E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -18202,4 +20308,12 @@
     <ds:schemaRef ds:uri="c8a3c734-6769-448e-aba7-561ff76b1227"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072DCDC3-D3CE-49B3-A063-3E5EED780BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>